--- a/media/request/EB支払通知書.xlsx
+++ b/media/request/EB支払通知書.xlsx
@@ -1582,7 +1582,9 @@
   </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.375" defaultRowHeight="13.5"/>
   <cols>
@@ -1721,7 +1723,7 @@
       <c r="T14" s="79"/>
     </row>
     <row r="15" spans="1:21" ht="21" customHeight="1"/>
-    <row r="16" spans="1:21" ht="26.25" customHeight="1">
+    <row r="16" spans="1:21" ht="30" customHeight="1">
       <c r="A16" s="29" t="s">
         <v>60</v>
       </c>

--- a/media/request/EB支払通知書.xlsx
+++ b/media/request/EB支払通知書.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CB6A4ABB-103A-E744-88F5-A01BE4A4248B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="支払通知書" sheetId="5" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <definedName name="ITERATOR_END">支払通知書!#REF!</definedName>
     <definedName name="ITERATOR_START">支払通知書!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -424,10 +425,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>2017年07月度検収兼お支払通知書</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>下記の通り、お支払いいたします。</t>
     <rPh sb="0" eb="2">
       <t>カキ</t>
@@ -478,19 +475,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>合計金額（税込み）</t>
-    <rPh sb="0" eb="2">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゼイコ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>FAX：</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -613,31 +597,37 @@
   <si>
     <t>検収番号</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>合計金額</t>
+  </si>
+  <si>
+    <t>2017年07月度検収兼お支払通知書</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -665,7 +655,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -703,7 +693,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -727,7 +717,7 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -776,18 +766,10 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -796,7 +778,7 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -806,7 +788,7 @@
       <u/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -815,7 +797,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1013,7 +995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1206,31 +1188,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1272,10 +1248,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1291,7 +1270,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1333,7 +1312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1366,9 +1345,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1401,6 +1397,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1576,213 +1589,214 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet17">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.33203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="5.375" style="1"/>
+    <col min="1" max="16384" width="5.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
       <c r="R1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="T1" s="65"/>
+      <c r="U1" s="73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="22" customHeight="1">
+      <c r="A3" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="65"/>
-      <c r="U1" s="75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="24">
-      <c r="A3" s="67" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+    </row>
+    <row r="5" spans="1:21" ht="19">
+      <c r="A5" s="67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="19">
+      <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-    </row>
-    <row r="5" spans="1:21" ht="17.25">
-      <c r="A5" s="69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="17.25">
-      <c r="A7" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="O7" s="68"/>
+      <c r="N7" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="66"/>
     </row>
     <row r="9" spans="1:21" ht="20.25" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="20.25" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="20.25" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="20.25" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="18" customHeight="1" thickBot="1">
       <c r="K13" s="47"/>
-      <c r="L13" s="79"/>
+      <c r="L13" s="77"/>
       <c r="M13" s="47"/>
-      <c r="N13" s="79"/>
+      <c r="N13" s="77"/>
       <c r="O13" s="47"/>
-      <c r="P13" s="79"/>
+      <c r="P13" s="77"/>
       <c r="Q13" s="47"/>
-      <c r="R13" s="79"/>
+      <c r="R13" s="77"/>
       <c r="S13" s="47"/>
-      <c r="T13" s="79"/>
+      <c r="T13" s="77"/>
     </row>
     <row r="14" spans="1:21" ht="42" customHeight="1" thickBot="1">
-      <c r="A14" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74" t="s">
-        <v>78</v>
+      <c r="A14" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="72" t="s">
+        <v>76</v>
       </c>
       <c r="K14" s="47"/>
-      <c r="L14" s="79"/>
+      <c r="L14" s="77"/>
       <c r="M14" s="47"/>
-      <c r="N14" s="79"/>
+      <c r="N14" s="77"/>
       <c r="O14" s="47"/>
-      <c r="P14" s="79"/>
+      <c r="P14" s="77"/>
       <c r="Q14" s="47"/>
-      <c r="R14" s="79"/>
+      <c r="R14" s="77"/>
       <c r="S14" s="47"/>
-      <c r="T14" s="79"/>
+      <c r="T14" s="77"/>
     </row>
     <row r="15" spans="1:21" ht="21" customHeight="1"/>
     <row r="16" spans="1:21" ht="30" customHeight="1">
       <c r="A16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="I16" s="76"/>
+      <c r="J16" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="76" t="s">
+      <c r="K16" s="76"/>
+      <c r="L16" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="78"/>
-      <c r="J16" s="76" t="s">
+      <c r="M16" s="76"/>
+      <c r="N16" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="K16" s="78"/>
-      <c r="L16" s="76" t="s">
+      <c r="O16" s="75"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="M16" s="78"/>
-      <c r="N16" s="76" t="s">
+      <c r="R16" s="76"/>
+      <c r="S16" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="O16" s="77"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="R16" s="78"/>
-      <c r="S16" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="T16" s="77"/>
-      <c r="U16" s="78"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="76"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="80">
+      <c r="A17" s="78">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="81"/>
+      <c r="A18" s="79"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="81"/>
+      <c r="A19" s="79"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="81"/>
+      <c r="A20" s="79"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A3:U3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;P / &amp;N ページ</oddHeader>
   </headerFooter>
@@ -1790,7 +1804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1800,797 +1814,797 @@
       <selection activeCell="M10" sqref="M10:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" customWidth="1"/>
-    <col min="3" max="7" width="3.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="3.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="5.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12" max="13" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="13.1640625" style="1" customWidth="1"/>
     <col min="17" max="256" width="9" style="1"/>
-    <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
-    <col min="258" max="258" width="5.625" style="1" customWidth="1"/>
-    <col min="259" max="263" width="3.625" style="1" customWidth="1"/>
+    <col min="257" max="257" width="1.6640625" style="1" customWidth="1"/>
+    <col min="258" max="258" width="5.6640625" style="1" customWidth="1"/>
+    <col min="259" max="263" width="3.6640625" style="1" customWidth="1"/>
     <col min="264" max="264" width="11" style="1" customWidth="1"/>
-    <col min="265" max="265" width="11.375" style="1" customWidth="1"/>
-    <col min="266" max="266" width="5.625" style="1" customWidth="1"/>
-    <col min="267" max="267" width="8.625" style="1" customWidth="1"/>
-    <col min="268" max="269" width="5.625" style="1" customWidth="1"/>
-    <col min="270" max="270" width="7.25" style="1" customWidth="1"/>
-    <col min="271" max="271" width="8.625" style="1" customWidth="1"/>
-    <col min="272" max="272" width="13.125" style="1" customWidth="1"/>
+    <col min="265" max="265" width="11.33203125" style="1" customWidth="1"/>
+    <col min="266" max="266" width="5.6640625" style="1" customWidth="1"/>
+    <col min="267" max="267" width="8.6640625" style="1" customWidth="1"/>
+    <col min="268" max="269" width="5.6640625" style="1" customWidth="1"/>
+    <col min="270" max="270" width="7.1640625" style="1" customWidth="1"/>
+    <col min="271" max="271" width="8.6640625" style="1" customWidth="1"/>
+    <col min="272" max="272" width="13.1640625" style="1" customWidth="1"/>
     <col min="273" max="512" width="9" style="1"/>
-    <col min="513" max="513" width="1.625" style="1" customWidth="1"/>
-    <col min="514" max="514" width="5.625" style="1" customWidth="1"/>
-    <col min="515" max="519" width="3.625" style="1" customWidth="1"/>
+    <col min="513" max="513" width="1.6640625" style="1" customWidth="1"/>
+    <col min="514" max="514" width="5.6640625" style="1" customWidth="1"/>
+    <col min="515" max="519" width="3.6640625" style="1" customWidth="1"/>
     <col min="520" max="520" width="11" style="1" customWidth="1"/>
-    <col min="521" max="521" width="11.375" style="1" customWidth="1"/>
-    <col min="522" max="522" width="5.625" style="1" customWidth="1"/>
-    <col min="523" max="523" width="8.625" style="1" customWidth="1"/>
-    <col min="524" max="525" width="5.625" style="1" customWidth="1"/>
-    <col min="526" max="526" width="7.25" style="1" customWidth="1"/>
-    <col min="527" max="527" width="8.625" style="1" customWidth="1"/>
-    <col min="528" max="528" width="13.125" style="1" customWidth="1"/>
+    <col min="521" max="521" width="11.33203125" style="1" customWidth="1"/>
+    <col min="522" max="522" width="5.6640625" style="1" customWidth="1"/>
+    <col min="523" max="523" width="8.6640625" style="1" customWidth="1"/>
+    <col min="524" max="525" width="5.6640625" style="1" customWidth="1"/>
+    <col min="526" max="526" width="7.1640625" style="1" customWidth="1"/>
+    <col min="527" max="527" width="8.6640625" style="1" customWidth="1"/>
+    <col min="528" max="528" width="13.1640625" style="1" customWidth="1"/>
     <col min="529" max="768" width="9" style="1"/>
-    <col min="769" max="769" width="1.625" style="1" customWidth="1"/>
-    <col min="770" max="770" width="5.625" style="1" customWidth="1"/>
-    <col min="771" max="775" width="3.625" style="1" customWidth="1"/>
+    <col min="769" max="769" width="1.6640625" style="1" customWidth="1"/>
+    <col min="770" max="770" width="5.6640625" style="1" customWidth="1"/>
+    <col min="771" max="775" width="3.6640625" style="1" customWidth="1"/>
     <col min="776" max="776" width="11" style="1" customWidth="1"/>
-    <col min="777" max="777" width="11.375" style="1" customWidth="1"/>
-    <col min="778" max="778" width="5.625" style="1" customWidth="1"/>
-    <col min="779" max="779" width="8.625" style="1" customWidth="1"/>
-    <col min="780" max="781" width="5.625" style="1" customWidth="1"/>
-    <col min="782" max="782" width="7.25" style="1" customWidth="1"/>
-    <col min="783" max="783" width="8.625" style="1" customWidth="1"/>
-    <col min="784" max="784" width="13.125" style="1" customWidth="1"/>
+    <col min="777" max="777" width="11.33203125" style="1" customWidth="1"/>
+    <col min="778" max="778" width="5.6640625" style="1" customWidth="1"/>
+    <col min="779" max="779" width="8.6640625" style="1" customWidth="1"/>
+    <col min="780" max="781" width="5.6640625" style="1" customWidth="1"/>
+    <col min="782" max="782" width="7.1640625" style="1" customWidth="1"/>
+    <col min="783" max="783" width="8.6640625" style="1" customWidth="1"/>
+    <col min="784" max="784" width="13.1640625" style="1" customWidth="1"/>
     <col min="785" max="1024" width="9" style="1"/>
-    <col min="1025" max="1025" width="1.625" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="5.625" style="1" customWidth="1"/>
-    <col min="1027" max="1031" width="3.625" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1027" max="1031" width="3.6640625" style="1" customWidth="1"/>
     <col min="1032" max="1032" width="11" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="11.375" style="1" customWidth="1"/>
-    <col min="1034" max="1034" width="5.625" style="1" customWidth="1"/>
-    <col min="1035" max="1035" width="8.625" style="1" customWidth="1"/>
-    <col min="1036" max="1037" width="5.625" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="7.25" style="1" customWidth="1"/>
-    <col min="1039" max="1039" width="8.625" style="1" customWidth="1"/>
-    <col min="1040" max="1040" width="13.125" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1036" max="1037" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="7.1640625" style="1" customWidth="1"/>
+    <col min="1039" max="1039" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1040" max="1040" width="13.1640625" style="1" customWidth="1"/>
     <col min="1041" max="1280" width="9" style="1"/>
-    <col min="1281" max="1281" width="1.625" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="5.625" style="1" customWidth="1"/>
-    <col min="1283" max="1287" width="3.625" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1283" max="1287" width="3.6640625" style="1" customWidth="1"/>
     <col min="1288" max="1288" width="11" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="11.375" style="1" customWidth="1"/>
-    <col min="1290" max="1290" width="5.625" style="1" customWidth="1"/>
-    <col min="1291" max="1291" width="8.625" style="1" customWidth="1"/>
-    <col min="1292" max="1293" width="5.625" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="7.25" style="1" customWidth="1"/>
-    <col min="1295" max="1295" width="8.625" style="1" customWidth="1"/>
-    <col min="1296" max="1296" width="13.125" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1292" max="1293" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="7.1640625" style="1" customWidth="1"/>
+    <col min="1295" max="1295" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1296" max="1296" width="13.1640625" style="1" customWidth="1"/>
     <col min="1297" max="1536" width="9" style="1"/>
-    <col min="1537" max="1537" width="1.625" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="5.625" style="1" customWidth="1"/>
-    <col min="1539" max="1543" width="3.625" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1539" max="1543" width="3.6640625" style="1" customWidth="1"/>
     <col min="1544" max="1544" width="11" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="11.375" style="1" customWidth="1"/>
-    <col min="1546" max="1546" width="5.625" style="1" customWidth="1"/>
-    <col min="1547" max="1547" width="8.625" style="1" customWidth="1"/>
-    <col min="1548" max="1549" width="5.625" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="7.25" style="1" customWidth="1"/>
-    <col min="1551" max="1551" width="8.625" style="1" customWidth="1"/>
-    <col min="1552" max="1552" width="13.125" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1548" max="1549" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="7.1640625" style="1" customWidth="1"/>
+    <col min="1551" max="1551" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1552" max="1552" width="13.1640625" style="1" customWidth="1"/>
     <col min="1553" max="1792" width="9" style="1"/>
-    <col min="1793" max="1793" width="1.625" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="5.625" style="1" customWidth="1"/>
-    <col min="1795" max="1799" width="3.625" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1795" max="1799" width="3.6640625" style="1" customWidth="1"/>
     <col min="1800" max="1800" width="11" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="11.375" style="1" customWidth="1"/>
-    <col min="1802" max="1802" width="5.625" style="1" customWidth="1"/>
-    <col min="1803" max="1803" width="8.625" style="1" customWidth="1"/>
-    <col min="1804" max="1805" width="5.625" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="7.25" style="1" customWidth="1"/>
-    <col min="1807" max="1807" width="8.625" style="1" customWidth="1"/>
-    <col min="1808" max="1808" width="13.125" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="11.33203125" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1804" max="1805" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="7.1640625" style="1" customWidth="1"/>
+    <col min="1807" max="1807" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1808" max="1808" width="13.1640625" style="1" customWidth="1"/>
     <col min="1809" max="2048" width="9" style="1"/>
-    <col min="2049" max="2049" width="1.625" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="5.625" style="1" customWidth="1"/>
-    <col min="2051" max="2055" width="3.625" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2051" max="2055" width="3.6640625" style="1" customWidth="1"/>
     <col min="2056" max="2056" width="11" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="11.375" style="1" customWidth="1"/>
-    <col min="2058" max="2058" width="5.625" style="1" customWidth="1"/>
-    <col min="2059" max="2059" width="8.625" style="1" customWidth="1"/>
-    <col min="2060" max="2061" width="5.625" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="7.25" style="1" customWidth="1"/>
-    <col min="2063" max="2063" width="8.625" style="1" customWidth="1"/>
-    <col min="2064" max="2064" width="13.125" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2060" max="2061" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="7.1640625" style="1" customWidth="1"/>
+    <col min="2063" max="2063" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2064" max="2064" width="13.1640625" style="1" customWidth="1"/>
     <col min="2065" max="2304" width="9" style="1"/>
-    <col min="2305" max="2305" width="1.625" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="5.625" style="1" customWidth="1"/>
-    <col min="2307" max="2311" width="3.625" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2307" max="2311" width="3.6640625" style="1" customWidth="1"/>
     <col min="2312" max="2312" width="11" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="11.375" style="1" customWidth="1"/>
-    <col min="2314" max="2314" width="5.625" style="1" customWidth="1"/>
-    <col min="2315" max="2315" width="8.625" style="1" customWidth="1"/>
-    <col min="2316" max="2317" width="5.625" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="7.25" style="1" customWidth="1"/>
-    <col min="2319" max="2319" width="8.625" style="1" customWidth="1"/>
-    <col min="2320" max="2320" width="13.125" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2316" max="2317" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="7.1640625" style="1" customWidth="1"/>
+    <col min="2319" max="2319" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2320" max="2320" width="13.1640625" style="1" customWidth="1"/>
     <col min="2321" max="2560" width="9" style="1"/>
-    <col min="2561" max="2561" width="1.625" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="5.625" style="1" customWidth="1"/>
-    <col min="2563" max="2567" width="3.625" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2563" max="2567" width="3.6640625" style="1" customWidth="1"/>
     <col min="2568" max="2568" width="11" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="11.375" style="1" customWidth="1"/>
-    <col min="2570" max="2570" width="5.625" style="1" customWidth="1"/>
-    <col min="2571" max="2571" width="8.625" style="1" customWidth="1"/>
-    <col min="2572" max="2573" width="5.625" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="7.25" style="1" customWidth="1"/>
-    <col min="2575" max="2575" width="8.625" style="1" customWidth="1"/>
-    <col min="2576" max="2576" width="13.125" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2572" max="2573" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="7.1640625" style="1" customWidth="1"/>
+    <col min="2575" max="2575" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2576" max="2576" width="13.1640625" style="1" customWidth="1"/>
     <col min="2577" max="2816" width="9" style="1"/>
-    <col min="2817" max="2817" width="1.625" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="5.625" style="1" customWidth="1"/>
-    <col min="2819" max="2823" width="3.625" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2819" max="2823" width="3.6640625" style="1" customWidth="1"/>
     <col min="2824" max="2824" width="11" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="11.375" style="1" customWidth="1"/>
-    <col min="2826" max="2826" width="5.625" style="1" customWidth="1"/>
-    <col min="2827" max="2827" width="8.625" style="1" customWidth="1"/>
-    <col min="2828" max="2829" width="5.625" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="7.25" style="1" customWidth="1"/>
-    <col min="2831" max="2831" width="8.625" style="1" customWidth="1"/>
-    <col min="2832" max="2832" width="13.125" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2828" max="2829" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="7.1640625" style="1" customWidth="1"/>
+    <col min="2831" max="2831" width="8.6640625" style="1" customWidth="1"/>
+    <col min="2832" max="2832" width="13.1640625" style="1" customWidth="1"/>
     <col min="2833" max="3072" width="9" style="1"/>
-    <col min="3073" max="3073" width="1.625" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="5.625" style="1" customWidth="1"/>
-    <col min="3075" max="3079" width="3.625" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3075" max="3079" width="3.6640625" style="1" customWidth="1"/>
     <col min="3080" max="3080" width="11" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="11.375" style="1" customWidth="1"/>
-    <col min="3082" max="3082" width="5.625" style="1" customWidth="1"/>
-    <col min="3083" max="3083" width="8.625" style="1" customWidth="1"/>
-    <col min="3084" max="3085" width="5.625" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="7.25" style="1" customWidth="1"/>
-    <col min="3087" max="3087" width="8.625" style="1" customWidth="1"/>
-    <col min="3088" max="3088" width="13.125" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3084" max="3085" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="7.1640625" style="1" customWidth="1"/>
+    <col min="3087" max="3087" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3088" max="3088" width="13.1640625" style="1" customWidth="1"/>
     <col min="3089" max="3328" width="9" style="1"/>
-    <col min="3329" max="3329" width="1.625" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="5.625" style="1" customWidth="1"/>
-    <col min="3331" max="3335" width="3.625" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3331" max="3335" width="3.6640625" style="1" customWidth="1"/>
     <col min="3336" max="3336" width="11" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="11.375" style="1" customWidth="1"/>
-    <col min="3338" max="3338" width="5.625" style="1" customWidth="1"/>
-    <col min="3339" max="3339" width="8.625" style="1" customWidth="1"/>
-    <col min="3340" max="3341" width="5.625" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="7.25" style="1" customWidth="1"/>
-    <col min="3343" max="3343" width="8.625" style="1" customWidth="1"/>
-    <col min="3344" max="3344" width="13.125" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3340" max="3341" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="7.1640625" style="1" customWidth="1"/>
+    <col min="3343" max="3343" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3344" max="3344" width="13.1640625" style="1" customWidth="1"/>
     <col min="3345" max="3584" width="9" style="1"/>
-    <col min="3585" max="3585" width="1.625" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="5.625" style="1" customWidth="1"/>
-    <col min="3587" max="3591" width="3.625" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3587" max="3591" width="3.6640625" style="1" customWidth="1"/>
     <col min="3592" max="3592" width="11" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="11.375" style="1" customWidth="1"/>
-    <col min="3594" max="3594" width="5.625" style="1" customWidth="1"/>
-    <col min="3595" max="3595" width="8.625" style="1" customWidth="1"/>
-    <col min="3596" max="3597" width="5.625" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="7.25" style="1" customWidth="1"/>
-    <col min="3599" max="3599" width="8.625" style="1" customWidth="1"/>
-    <col min="3600" max="3600" width="13.125" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3596" max="3597" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="7.1640625" style="1" customWidth="1"/>
+    <col min="3599" max="3599" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3600" max="3600" width="13.1640625" style="1" customWidth="1"/>
     <col min="3601" max="3840" width="9" style="1"/>
-    <col min="3841" max="3841" width="1.625" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="5.625" style="1" customWidth="1"/>
-    <col min="3843" max="3847" width="3.625" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3843" max="3847" width="3.6640625" style="1" customWidth="1"/>
     <col min="3848" max="3848" width="11" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="11.375" style="1" customWidth="1"/>
-    <col min="3850" max="3850" width="5.625" style="1" customWidth="1"/>
-    <col min="3851" max="3851" width="8.625" style="1" customWidth="1"/>
-    <col min="3852" max="3853" width="5.625" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="7.25" style="1" customWidth="1"/>
-    <col min="3855" max="3855" width="8.625" style="1" customWidth="1"/>
-    <col min="3856" max="3856" width="13.125" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3852" max="3853" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="7.1640625" style="1" customWidth="1"/>
+    <col min="3855" max="3855" width="8.6640625" style="1" customWidth="1"/>
+    <col min="3856" max="3856" width="13.1640625" style="1" customWidth="1"/>
     <col min="3857" max="4096" width="9" style="1"/>
-    <col min="4097" max="4097" width="1.625" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="5.625" style="1" customWidth="1"/>
-    <col min="4099" max="4103" width="3.625" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4099" max="4103" width="3.6640625" style="1" customWidth="1"/>
     <col min="4104" max="4104" width="11" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="11.375" style="1" customWidth="1"/>
-    <col min="4106" max="4106" width="5.625" style="1" customWidth="1"/>
-    <col min="4107" max="4107" width="8.625" style="1" customWidth="1"/>
-    <col min="4108" max="4109" width="5.625" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="7.25" style="1" customWidth="1"/>
-    <col min="4111" max="4111" width="8.625" style="1" customWidth="1"/>
-    <col min="4112" max="4112" width="13.125" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4108" max="4109" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="7.1640625" style="1" customWidth="1"/>
+    <col min="4111" max="4111" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4112" max="4112" width="13.1640625" style="1" customWidth="1"/>
     <col min="4113" max="4352" width="9" style="1"/>
-    <col min="4353" max="4353" width="1.625" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="5.625" style="1" customWidth="1"/>
-    <col min="4355" max="4359" width="3.625" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4355" max="4359" width="3.6640625" style="1" customWidth="1"/>
     <col min="4360" max="4360" width="11" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="11.375" style="1" customWidth="1"/>
-    <col min="4362" max="4362" width="5.625" style="1" customWidth="1"/>
-    <col min="4363" max="4363" width="8.625" style="1" customWidth="1"/>
-    <col min="4364" max="4365" width="5.625" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="7.25" style="1" customWidth="1"/>
-    <col min="4367" max="4367" width="8.625" style="1" customWidth="1"/>
-    <col min="4368" max="4368" width="13.125" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4364" max="4365" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="7.1640625" style="1" customWidth="1"/>
+    <col min="4367" max="4367" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4368" max="4368" width="13.1640625" style="1" customWidth="1"/>
     <col min="4369" max="4608" width="9" style="1"/>
-    <col min="4609" max="4609" width="1.625" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="5.625" style="1" customWidth="1"/>
-    <col min="4611" max="4615" width="3.625" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4611" max="4615" width="3.6640625" style="1" customWidth="1"/>
     <col min="4616" max="4616" width="11" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="11.375" style="1" customWidth="1"/>
-    <col min="4618" max="4618" width="5.625" style="1" customWidth="1"/>
-    <col min="4619" max="4619" width="8.625" style="1" customWidth="1"/>
-    <col min="4620" max="4621" width="5.625" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="7.25" style="1" customWidth="1"/>
-    <col min="4623" max="4623" width="8.625" style="1" customWidth="1"/>
-    <col min="4624" max="4624" width="13.125" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4620" max="4621" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="7.1640625" style="1" customWidth="1"/>
+    <col min="4623" max="4623" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4624" max="4624" width="13.1640625" style="1" customWidth="1"/>
     <col min="4625" max="4864" width="9" style="1"/>
-    <col min="4865" max="4865" width="1.625" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="5.625" style="1" customWidth="1"/>
-    <col min="4867" max="4871" width="3.625" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4867" max="4871" width="3.6640625" style="1" customWidth="1"/>
     <col min="4872" max="4872" width="11" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="11.375" style="1" customWidth="1"/>
-    <col min="4874" max="4874" width="5.625" style="1" customWidth="1"/>
-    <col min="4875" max="4875" width="8.625" style="1" customWidth="1"/>
-    <col min="4876" max="4877" width="5.625" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="7.25" style="1" customWidth="1"/>
-    <col min="4879" max="4879" width="8.625" style="1" customWidth="1"/>
-    <col min="4880" max="4880" width="13.125" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="11.33203125" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4876" max="4877" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="7.1640625" style="1" customWidth="1"/>
+    <col min="4879" max="4879" width="8.6640625" style="1" customWidth="1"/>
+    <col min="4880" max="4880" width="13.1640625" style="1" customWidth="1"/>
     <col min="4881" max="5120" width="9" style="1"/>
-    <col min="5121" max="5121" width="1.625" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="5.625" style="1" customWidth="1"/>
-    <col min="5123" max="5127" width="3.625" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5123" max="5127" width="3.6640625" style="1" customWidth="1"/>
     <col min="5128" max="5128" width="11" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="11.375" style="1" customWidth="1"/>
-    <col min="5130" max="5130" width="5.625" style="1" customWidth="1"/>
-    <col min="5131" max="5131" width="8.625" style="1" customWidth="1"/>
-    <col min="5132" max="5133" width="5.625" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="7.25" style="1" customWidth="1"/>
-    <col min="5135" max="5135" width="8.625" style="1" customWidth="1"/>
-    <col min="5136" max="5136" width="13.125" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5132" max="5133" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="7.1640625" style="1" customWidth="1"/>
+    <col min="5135" max="5135" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5136" max="5136" width="13.1640625" style="1" customWidth="1"/>
     <col min="5137" max="5376" width="9" style="1"/>
-    <col min="5377" max="5377" width="1.625" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="5.625" style="1" customWidth="1"/>
-    <col min="5379" max="5383" width="3.625" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5379" max="5383" width="3.6640625" style="1" customWidth="1"/>
     <col min="5384" max="5384" width="11" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="11.375" style="1" customWidth="1"/>
-    <col min="5386" max="5386" width="5.625" style="1" customWidth="1"/>
-    <col min="5387" max="5387" width="8.625" style="1" customWidth="1"/>
-    <col min="5388" max="5389" width="5.625" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="7.25" style="1" customWidth="1"/>
-    <col min="5391" max="5391" width="8.625" style="1" customWidth="1"/>
-    <col min="5392" max="5392" width="13.125" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5388" max="5389" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="7.1640625" style="1" customWidth="1"/>
+    <col min="5391" max="5391" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5392" max="5392" width="13.1640625" style="1" customWidth="1"/>
     <col min="5393" max="5632" width="9" style="1"/>
-    <col min="5633" max="5633" width="1.625" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="5.625" style="1" customWidth="1"/>
-    <col min="5635" max="5639" width="3.625" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5635" max="5639" width="3.6640625" style="1" customWidth="1"/>
     <col min="5640" max="5640" width="11" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="11.375" style="1" customWidth="1"/>
-    <col min="5642" max="5642" width="5.625" style="1" customWidth="1"/>
-    <col min="5643" max="5643" width="8.625" style="1" customWidth="1"/>
-    <col min="5644" max="5645" width="5.625" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="7.25" style="1" customWidth="1"/>
-    <col min="5647" max="5647" width="8.625" style="1" customWidth="1"/>
-    <col min="5648" max="5648" width="13.125" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5644" max="5645" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="7.1640625" style="1" customWidth="1"/>
+    <col min="5647" max="5647" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5648" max="5648" width="13.1640625" style="1" customWidth="1"/>
     <col min="5649" max="5888" width="9" style="1"/>
-    <col min="5889" max="5889" width="1.625" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="5.625" style="1" customWidth="1"/>
-    <col min="5891" max="5895" width="3.625" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5891" max="5895" width="3.6640625" style="1" customWidth="1"/>
     <col min="5896" max="5896" width="11" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="11.375" style="1" customWidth="1"/>
-    <col min="5898" max="5898" width="5.625" style="1" customWidth="1"/>
-    <col min="5899" max="5899" width="8.625" style="1" customWidth="1"/>
-    <col min="5900" max="5901" width="5.625" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="7.25" style="1" customWidth="1"/>
-    <col min="5903" max="5903" width="8.625" style="1" customWidth="1"/>
-    <col min="5904" max="5904" width="13.125" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5900" max="5901" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="7.1640625" style="1" customWidth="1"/>
+    <col min="5903" max="5903" width="8.6640625" style="1" customWidth="1"/>
+    <col min="5904" max="5904" width="13.1640625" style="1" customWidth="1"/>
     <col min="5905" max="6144" width="9" style="1"/>
-    <col min="6145" max="6145" width="1.625" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="5.625" style="1" customWidth="1"/>
-    <col min="6147" max="6151" width="3.625" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="1.6640625" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6147" max="6151" width="3.6640625" style="1" customWidth="1"/>
     <col min="6152" max="6152" width="11" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="11.375" style="1" customWidth="1"/>
-    <col min="6154" max="6154" width="5.625" style="1" customWidth="1"/>
-    <col min="6155" max="6155" width="8.625" style="1" customWidth="1"/>
-    <col min="6156" max="6157" width="5.625" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="7.25" style="1" customWidth="1"/>
-    <col min="6159" max="6159" width="8.625" style="1" customWidth="1"/>
-    <col min="6160" max="6160" width="13.125" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6156" max="6157" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="7.1640625" style="1" customWidth="1"/>
+    <col min="6159" max="6159" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6160" max="6160" width="13.1640625" style="1" customWidth="1"/>
     <col min="6161" max="6400" width="9" style="1"/>
-    <col min="6401" max="6401" width="1.625" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="5.625" style="1" customWidth="1"/>
-    <col min="6403" max="6407" width="3.625" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="1.6640625" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6403" max="6407" width="3.6640625" style="1" customWidth="1"/>
     <col min="6408" max="6408" width="11" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="11.375" style="1" customWidth="1"/>
-    <col min="6410" max="6410" width="5.625" style="1" customWidth="1"/>
-    <col min="6411" max="6411" width="8.625" style="1" customWidth="1"/>
-    <col min="6412" max="6413" width="5.625" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="7.25" style="1" customWidth="1"/>
-    <col min="6415" max="6415" width="8.625" style="1" customWidth="1"/>
-    <col min="6416" max="6416" width="13.125" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6412" max="6413" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="7.1640625" style="1" customWidth="1"/>
+    <col min="6415" max="6415" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6416" max="6416" width="13.1640625" style="1" customWidth="1"/>
     <col min="6417" max="6656" width="9" style="1"/>
-    <col min="6657" max="6657" width="1.625" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="5.625" style="1" customWidth="1"/>
-    <col min="6659" max="6663" width="3.625" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="1.6640625" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6659" max="6663" width="3.6640625" style="1" customWidth="1"/>
     <col min="6664" max="6664" width="11" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="11.375" style="1" customWidth="1"/>
-    <col min="6666" max="6666" width="5.625" style="1" customWidth="1"/>
-    <col min="6667" max="6667" width="8.625" style="1" customWidth="1"/>
-    <col min="6668" max="6669" width="5.625" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="7.25" style="1" customWidth="1"/>
-    <col min="6671" max="6671" width="8.625" style="1" customWidth="1"/>
-    <col min="6672" max="6672" width="13.125" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6668" max="6669" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="7.1640625" style="1" customWidth="1"/>
+    <col min="6671" max="6671" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6672" max="6672" width="13.1640625" style="1" customWidth="1"/>
     <col min="6673" max="6912" width="9" style="1"/>
-    <col min="6913" max="6913" width="1.625" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="5.625" style="1" customWidth="1"/>
-    <col min="6915" max="6919" width="3.625" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="1.6640625" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6915" max="6919" width="3.6640625" style="1" customWidth="1"/>
     <col min="6920" max="6920" width="11" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="11.375" style="1" customWidth="1"/>
-    <col min="6922" max="6922" width="5.625" style="1" customWidth="1"/>
-    <col min="6923" max="6923" width="8.625" style="1" customWidth="1"/>
-    <col min="6924" max="6925" width="5.625" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="7.25" style="1" customWidth="1"/>
-    <col min="6927" max="6927" width="8.625" style="1" customWidth="1"/>
-    <col min="6928" max="6928" width="13.125" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="11.33203125" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6924" max="6925" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="7.1640625" style="1" customWidth="1"/>
+    <col min="6927" max="6927" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6928" max="6928" width="13.1640625" style="1" customWidth="1"/>
     <col min="6929" max="7168" width="9" style="1"/>
-    <col min="7169" max="7169" width="1.625" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="5.625" style="1" customWidth="1"/>
-    <col min="7171" max="7175" width="3.625" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7171" max="7175" width="3.6640625" style="1" customWidth="1"/>
     <col min="7176" max="7176" width="11" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="11.375" style="1" customWidth="1"/>
-    <col min="7178" max="7178" width="5.625" style="1" customWidth="1"/>
-    <col min="7179" max="7179" width="8.625" style="1" customWidth="1"/>
-    <col min="7180" max="7181" width="5.625" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="7.25" style="1" customWidth="1"/>
-    <col min="7183" max="7183" width="8.625" style="1" customWidth="1"/>
-    <col min="7184" max="7184" width="13.125" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7180" max="7181" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="7.1640625" style="1" customWidth="1"/>
+    <col min="7183" max="7183" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7184" max="7184" width="13.1640625" style="1" customWidth="1"/>
     <col min="7185" max="7424" width="9" style="1"/>
-    <col min="7425" max="7425" width="1.625" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="5.625" style="1" customWidth="1"/>
-    <col min="7427" max="7431" width="3.625" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7427" max="7431" width="3.6640625" style="1" customWidth="1"/>
     <col min="7432" max="7432" width="11" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="11.375" style="1" customWidth="1"/>
-    <col min="7434" max="7434" width="5.625" style="1" customWidth="1"/>
-    <col min="7435" max="7435" width="8.625" style="1" customWidth="1"/>
-    <col min="7436" max="7437" width="5.625" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="7.25" style="1" customWidth="1"/>
-    <col min="7439" max="7439" width="8.625" style="1" customWidth="1"/>
-    <col min="7440" max="7440" width="13.125" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7436" max="7437" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="7.1640625" style="1" customWidth="1"/>
+    <col min="7439" max="7439" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7440" max="7440" width="13.1640625" style="1" customWidth="1"/>
     <col min="7441" max="7680" width="9" style="1"/>
-    <col min="7681" max="7681" width="1.625" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="5.625" style="1" customWidth="1"/>
-    <col min="7683" max="7687" width="3.625" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7683" max="7687" width="3.6640625" style="1" customWidth="1"/>
     <col min="7688" max="7688" width="11" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="11.375" style="1" customWidth="1"/>
-    <col min="7690" max="7690" width="5.625" style="1" customWidth="1"/>
-    <col min="7691" max="7691" width="8.625" style="1" customWidth="1"/>
-    <col min="7692" max="7693" width="5.625" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="7.25" style="1" customWidth="1"/>
-    <col min="7695" max="7695" width="8.625" style="1" customWidth="1"/>
-    <col min="7696" max="7696" width="13.125" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7692" max="7693" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="7.1640625" style="1" customWidth="1"/>
+    <col min="7695" max="7695" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7696" max="7696" width="13.1640625" style="1" customWidth="1"/>
     <col min="7697" max="7936" width="9" style="1"/>
-    <col min="7937" max="7937" width="1.625" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="5.625" style="1" customWidth="1"/>
-    <col min="7939" max="7943" width="3.625" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7939" max="7943" width="3.6640625" style="1" customWidth="1"/>
     <col min="7944" max="7944" width="11" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="11.375" style="1" customWidth="1"/>
-    <col min="7946" max="7946" width="5.625" style="1" customWidth="1"/>
-    <col min="7947" max="7947" width="8.625" style="1" customWidth="1"/>
-    <col min="7948" max="7949" width="5.625" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="7.25" style="1" customWidth="1"/>
-    <col min="7951" max="7951" width="8.625" style="1" customWidth="1"/>
-    <col min="7952" max="7952" width="13.125" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="11.33203125" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7948" max="7949" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="7.1640625" style="1" customWidth="1"/>
+    <col min="7951" max="7951" width="8.6640625" style="1" customWidth="1"/>
+    <col min="7952" max="7952" width="13.1640625" style="1" customWidth="1"/>
     <col min="7953" max="8192" width="9" style="1"/>
-    <col min="8193" max="8193" width="1.625" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="5.625" style="1" customWidth="1"/>
-    <col min="8195" max="8199" width="3.625" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8195" max="8199" width="3.6640625" style="1" customWidth="1"/>
     <col min="8200" max="8200" width="11" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="11.375" style="1" customWidth="1"/>
-    <col min="8202" max="8202" width="5.625" style="1" customWidth="1"/>
-    <col min="8203" max="8203" width="8.625" style="1" customWidth="1"/>
-    <col min="8204" max="8205" width="5.625" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="7.25" style="1" customWidth="1"/>
-    <col min="8207" max="8207" width="8.625" style="1" customWidth="1"/>
-    <col min="8208" max="8208" width="13.125" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8204" max="8205" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="7.1640625" style="1" customWidth="1"/>
+    <col min="8207" max="8207" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8208" max="8208" width="13.1640625" style="1" customWidth="1"/>
     <col min="8209" max="8448" width="9" style="1"/>
-    <col min="8449" max="8449" width="1.625" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="5.625" style="1" customWidth="1"/>
-    <col min="8451" max="8455" width="3.625" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8451" max="8455" width="3.6640625" style="1" customWidth="1"/>
     <col min="8456" max="8456" width="11" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="11.375" style="1" customWidth="1"/>
-    <col min="8458" max="8458" width="5.625" style="1" customWidth="1"/>
-    <col min="8459" max="8459" width="8.625" style="1" customWidth="1"/>
-    <col min="8460" max="8461" width="5.625" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="7.25" style="1" customWidth="1"/>
-    <col min="8463" max="8463" width="8.625" style="1" customWidth="1"/>
-    <col min="8464" max="8464" width="13.125" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8460" max="8461" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="7.1640625" style="1" customWidth="1"/>
+    <col min="8463" max="8463" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8464" max="8464" width="13.1640625" style="1" customWidth="1"/>
     <col min="8465" max="8704" width="9" style="1"/>
-    <col min="8705" max="8705" width="1.625" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="5.625" style="1" customWidth="1"/>
-    <col min="8707" max="8711" width="3.625" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8707" max="8711" width="3.6640625" style="1" customWidth="1"/>
     <col min="8712" max="8712" width="11" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="11.375" style="1" customWidth="1"/>
-    <col min="8714" max="8714" width="5.625" style="1" customWidth="1"/>
-    <col min="8715" max="8715" width="8.625" style="1" customWidth="1"/>
-    <col min="8716" max="8717" width="5.625" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="7.25" style="1" customWidth="1"/>
-    <col min="8719" max="8719" width="8.625" style="1" customWidth="1"/>
-    <col min="8720" max="8720" width="13.125" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8716" max="8717" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="7.1640625" style="1" customWidth="1"/>
+    <col min="8719" max="8719" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8720" max="8720" width="13.1640625" style="1" customWidth="1"/>
     <col min="8721" max="8960" width="9" style="1"/>
-    <col min="8961" max="8961" width="1.625" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="5.625" style="1" customWidth="1"/>
-    <col min="8963" max="8967" width="3.625" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8963" max="8967" width="3.6640625" style="1" customWidth="1"/>
     <col min="8968" max="8968" width="11" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="11.375" style="1" customWidth="1"/>
-    <col min="8970" max="8970" width="5.625" style="1" customWidth="1"/>
-    <col min="8971" max="8971" width="8.625" style="1" customWidth="1"/>
-    <col min="8972" max="8973" width="5.625" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="7.25" style="1" customWidth="1"/>
-    <col min="8975" max="8975" width="8.625" style="1" customWidth="1"/>
-    <col min="8976" max="8976" width="13.125" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="11.33203125" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8972" max="8973" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="7.1640625" style="1" customWidth="1"/>
+    <col min="8975" max="8975" width="8.6640625" style="1" customWidth="1"/>
+    <col min="8976" max="8976" width="13.1640625" style="1" customWidth="1"/>
     <col min="8977" max="9216" width="9" style="1"/>
-    <col min="9217" max="9217" width="1.625" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="5.625" style="1" customWidth="1"/>
-    <col min="9219" max="9223" width="3.625" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9219" max="9223" width="3.6640625" style="1" customWidth="1"/>
     <col min="9224" max="9224" width="11" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="11.375" style="1" customWidth="1"/>
-    <col min="9226" max="9226" width="5.625" style="1" customWidth="1"/>
-    <col min="9227" max="9227" width="8.625" style="1" customWidth="1"/>
-    <col min="9228" max="9229" width="5.625" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="7.25" style="1" customWidth="1"/>
-    <col min="9231" max="9231" width="8.625" style="1" customWidth="1"/>
-    <col min="9232" max="9232" width="13.125" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9228" max="9229" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="7.1640625" style="1" customWidth="1"/>
+    <col min="9231" max="9231" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9232" max="9232" width="13.1640625" style="1" customWidth="1"/>
     <col min="9233" max="9472" width="9" style="1"/>
-    <col min="9473" max="9473" width="1.625" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="5.625" style="1" customWidth="1"/>
-    <col min="9475" max="9479" width="3.625" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9475" max="9479" width="3.6640625" style="1" customWidth="1"/>
     <col min="9480" max="9480" width="11" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="11.375" style="1" customWidth="1"/>
-    <col min="9482" max="9482" width="5.625" style="1" customWidth="1"/>
-    <col min="9483" max="9483" width="8.625" style="1" customWidth="1"/>
-    <col min="9484" max="9485" width="5.625" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="7.25" style="1" customWidth="1"/>
-    <col min="9487" max="9487" width="8.625" style="1" customWidth="1"/>
-    <col min="9488" max="9488" width="13.125" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9484" max="9485" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="7.1640625" style="1" customWidth="1"/>
+    <col min="9487" max="9487" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9488" max="9488" width="13.1640625" style="1" customWidth="1"/>
     <col min="9489" max="9728" width="9" style="1"/>
-    <col min="9729" max="9729" width="1.625" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="5.625" style="1" customWidth="1"/>
-    <col min="9731" max="9735" width="3.625" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9731" max="9735" width="3.6640625" style="1" customWidth="1"/>
     <col min="9736" max="9736" width="11" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="11.375" style="1" customWidth="1"/>
-    <col min="9738" max="9738" width="5.625" style="1" customWidth="1"/>
-    <col min="9739" max="9739" width="8.625" style="1" customWidth="1"/>
-    <col min="9740" max="9741" width="5.625" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="7.25" style="1" customWidth="1"/>
-    <col min="9743" max="9743" width="8.625" style="1" customWidth="1"/>
-    <col min="9744" max="9744" width="13.125" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9740" max="9741" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="7.1640625" style="1" customWidth="1"/>
+    <col min="9743" max="9743" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9744" max="9744" width="13.1640625" style="1" customWidth="1"/>
     <col min="9745" max="9984" width="9" style="1"/>
-    <col min="9985" max="9985" width="1.625" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="5.625" style="1" customWidth="1"/>
-    <col min="9987" max="9991" width="3.625" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9987" max="9991" width="3.6640625" style="1" customWidth="1"/>
     <col min="9992" max="9992" width="11" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="11.375" style="1" customWidth="1"/>
-    <col min="9994" max="9994" width="5.625" style="1" customWidth="1"/>
-    <col min="9995" max="9995" width="8.625" style="1" customWidth="1"/>
-    <col min="9996" max="9997" width="5.625" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="7.25" style="1" customWidth="1"/>
-    <col min="9999" max="9999" width="8.625" style="1" customWidth="1"/>
-    <col min="10000" max="10000" width="13.125" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="11.33203125" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9996" max="9997" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="7.1640625" style="1" customWidth="1"/>
+    <col min="9999" max="9999" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10000" max="10000" width="13.1640625" style="1" customWidth="1"/>
     <col min="10001" max="10240" width="9" style="1"/>
-    <col min="10241" max="10241" width="1.625" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="5.625" style="1" customWidth="1"/>
-    <col min="10243" max="10247" width="3.625" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="1.6640625" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10243" max="10247" width="3.6640625" style="1" customWidth="1"/>
     <col min="10248" max="10248" width="11" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="11.375" style="1" customWidth="1"/>
-    <col min="10250" max="10250" width="5.625" style="1" customWidth="1"/>
-    <col min="10251" max="10251" width="8.625" style="1" customWidth="1"/>
-    <col min="10252" max="10253" width="5.625" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="7.25" style="1" customWidth="1"/>
-    <col min="10255" max="10255" width="8.625" style="1" customWidth="1"/>
-    <col min="10256" max="10256" width="13.125" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10252" max="10253" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="7.1640625" style="1" customWidth="1"/>
+    <col min="10255" max="10255" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10256" max="10256" width="13.1640625" style="1" customWidth="1"/>
     <col min="10257" max="10496" width="9" style="1"/>
-    <col min="10497" max="10497" width="1.625" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="5.625" style="1" customWidth="1"/>
-    <col min="10499" max="10503" width="3.625" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="1.6640625" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10499" max="10503" width="3.6640625" style="1" customWidth="1"/>
     <col min="10504" max="10504" width="11" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="11.375" style="1" customWidth="1"/>
-    <col min="10506" max="10506" width="5.625" style="1" customWidth="1"/>
-    <col min="10507" max="10507" width="8.625" style="1" customWidth="1"/>
-    <col min="10508" max="10509" width="5.625" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="7.25" style="1" customWidth="1"/>
-    <col min="10511" max="10511" width="8.625" style="1" customWidth="1"/>
-    <col min="10512" max="10512" width="13.125" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10508" max="10509" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="7.1640625" style="1" customWidth="1"/>
+    <col min="10511" max="10511" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10512" max="10512" width="13.1640625" style="1" customWidth="1"/>
     <col min="10513" max="10752" width="9" style="1"/>
-    <col min="10753" max="10753" width="1.625" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="5.625" style="1" customWidth="1"/>
-    <col min="10755" max="10759" width="3.625" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="1.6640625" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10755" max="10759" width="3.6640625" style="1" customWidth="1"/>
     <col min="10760" max="10760" width="11" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="11.375" style="1" customWidth="1"/>
-    <col min="10762" max="10762" width="5.625" style="1" customWidth="1"/>
-    <col min="10763" max="10763" width="8.625" style="1" customWidth="1"/>
-    <col min="10764" max="10765" width="5.625" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="7.25" style="1" customWidth="1"/>
-    <col min="10767" max="10767" width="8.625" style="1" customWidth="1"/>
-    <col min="10768" max="10768" width="13.125" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="11.33203125" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10764" max="10765" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="7.1640625" style="1" customWidth="1"/>
+    <col min="10767" max="10767" width="8.6640625" style="1" customWidth="1"/>
+    <col min="10768" max="10768" width="13.1640625" style="1" customWidth="1"/>
     <col min="10769" max="11008" width="9" style="1"/>
-    <col min="11009" max="11009" width="1.625" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="5.625" style="1" customWidth="1"/>
-    <col min="11011" max="11015" width="3.625" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11011" max="11015" width="3.6640625" style="1" customWidth="1"/>
     <col min="11016" max="11016" width="11" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="11.375" style="1" customWidth="1"/>
-    <col min="11018" max="11018" width="5.625" style="1" customWidth="1"/>
-    <col min="11019" max="11019" width="8.625" style="1" customWidth="1"/>
-    <col min="11020" max="11021" width="5.625" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="7.25" style="1" customWidth="1"/>
-    <col min="11023" max="11023" width="8.625" style="1" customWidth="1"/>
-    <col min="11024" max="11024" width="13.125" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11020" max="11021" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11023" max="11023" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11024" max="11024" width="13.1640625" style="1" customWidth="1"/>
     <col min="11025" max="11264" width="9" style="1"/>
-    <col min="11265" max="11265" width="1.625" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="5.625" style="1" customWidth="1"/>
-    <col min="11267" max="11271" width="3.625" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11267" max="11271" width="3.6640625" style="1" customWidth="1"/>
     <col min="11272" max="11272" width="11" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="11.375" style="1" customWidth="1"/>
-    <col min="11274" max="11274" width="5.625" style="1" customWidth="1"/>
-    <col min="11275" max="11275" width="8.625" style="1" customWidth="1"/>
-    <col min="11276" max="11277" width="5.625" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="7.25" style="1" customWidth="1"/>
-    <col min="11279" max="11279" width="8.625" style="1" customWidth="1"/>
-    <col min="11280" max="11280" width="13.125" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11276" max="11277" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11279" max="11279" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11280" max="11280" width="13.1640625" style="1" customWidth="1"/>
     <col min="11281" max="11520" width="9" style="1"/>
-    <col min="11521" max="11521" width="1.625" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="5.625" style="1" customWidth="1"/>
-    <col min="11523" max="11527" width="3.625" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11523" max="11527" width="3.6640625" style="1" customWidth="1"/>
     <col min="11528" max="11528" width="11" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="11.375" style="1" customWidth="1"/>
-    <col min="11530" max="11530" width="5.625" style="1" customWidth="1"/>
-    <col min="11531" max="11531" width="8.625" style="1" customWidth="1"/>
-    <col min="11532" max="11533" width="5.625" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="7.25" style="1" customWidth="1"/>
-    <col min="11535" max="11535" width="8.625" style="1" customWidth="1"/>
-    <col min="11536" max="11536" width="13.125" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11532" max="11533" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11535" max="11535" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11536" max="11536" width="13.1640625" style="1" customWidth="1"/>
     <col min="11537" max="11776" width="9" style="1"/>
-    <col min="11777" max="11777" width="1.625" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="5.625" style="1" customWidth="1"/>
-    <col min="11779" max="11783" width="3.625" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11779" max="11783" width="3.6640625" style="1" customWidth="1"/>
     <col min="11784" max="11784" width="11" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="11.375" style="1" customWidth="1"/>
-    <col min="11786" max="11786" width="5.625" style="1" customWidth="1"/>
-    <col min="11787" max="11787" width="8.625" style="1" customWidth="1"/>
-    <col min="11788" max="11789" width="5.625" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="7.25" style="1" customWidth="1"/>
-    <col min="11791" max="11791" width="8.625" style="1" customWidth="1"/>
-    <col min="11792" max="11792" width="13.125" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11788" max="11789" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="7.1640625" style="1" customWidth="1"/>
+    <col min="11791" max="11791" width="8.6640625" style="1" customWidth="1"/>
+    <col min="11792" max="11792" width="13.1640625" style="1" customWidth="1"/>
     <col min="11793" max="12032" width="9" style="1"/>
-    <col min="12033" max="12033" width="1.625" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="5.625" style="1" customWidth="1"/>
-    <col min="12035" max="12039" width="3.625" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="1.6640625" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12035" max="12039" width="3.6640625" style="1" customWidth="1"/>
     <col min="12040" max="12040" width="11" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="11.375" style="1" customWidth="1"/>
-    <col min="12042" max="12042" width="5.625" style="1" customWidth="1"/>
-    <col min="12043" max="12043" width="8.625" style="1" customWidth="1"/>
-    <col min="12044" max="12045" width="5.625" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="7.25" style="1" customWidth="1"/>
-    <col min="12047" max="12047" width="8.625" style="1" customWidth="1"/>
-    <col min="12048" max="12048" width="13.125" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12044" max="12045" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12047" max="12047" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12048" max="12048" width="13.1640625" style="1" customWidth="1"/>
     <col min="12049" max="12288" width="9" style="1"/>
-    <col min="12289" max="12289" width="1.625" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="5.625" style="1" customWidth="1"/>
-    <col min="12291" max="12295" width="3.625" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="1.6640625" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12291" max="12295" width="3.6640625" style="1" customWidth="1"/>
     <col min="12296" max="12296" width="11" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="11.375" style="1" customWidth="1"/>
-    <col min="12298" max="12298" width="5.625" style="1" customWidth="1"/>
-    <col min="12299" max="12299" width="8.625" style="1" customWidth="1"/>
-    <col min="12300" max="12301" width="5.625" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="7.25" style="1" customWidth="1"/>
-    <col min="12303" max="12303" width="8.625" style="1" customWidth="1"/>
-    <col min="12304" max="12304" width="13.125" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12300" max="12301" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12303" max="12303" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12304" max="12304" width="13.1640625" style="1" customWidth="1"/>
     <col min="12305" max="12544" width="9" style="1"/>
-    <col min="12545" max="12545" width="1.625" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="5.625" style="1" customWidth="1"/>
-    <col min="12547" max="12551" width="3.625" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="1.6640625" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12547" max="12551" width="3.6640625" style="1" customWidth="1"/>
     <col min="12552" max="12552" width="11" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="11.375" style="1" customWidth="1"/>
-    <col min="12554" max="12554" width="5.625" style="1" customWidth="1"/>
-    <col min="12555" max="12555" width="8.625" style="1" customWidth="1"/>
-    <col min="12556" max="12557" width="5.625" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="7.25" style="1" customWidth="1"/>
-    <col min="12559" max="12559" width="8.625" style="1" customWidth="1"/>
-    <col min="12560" max="12560" width="13.125" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12556" max="12557" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12559" max="12559" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12560" max="12560" width="13.1640625" style="1" customWidth="1"/>
     <col min="12561" max="12800" width="9" style="1"/>
-    <col min="12801" max="12801" width="1.625" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="5.625" style="1" customWidth="1"/>
-    <col min="12803" max="12807" width="3.625" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="1.6640625" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12803" max="12807" width="3.6640625" style="1" customWidth="1"/>
     <col min="12808" max="12808" width="11" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="11.375" style="1" customWidth="1"/>
-    <col min="12810" max="12810" width="5.625" style="1" customWidth="1"/>
-    <col min="12811" max="12811" width="8.625" style="1" customWidth="1"/>
-    <col min="12812" max="12813" width="5.625" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="7.25" style="1" customWidth="1"/>
-    <col min="12815" max="12815" width="8.625" style="1" customWidth="1"/>
-    <col min="12816" max="12816" width="13.125" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="11.33203125" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12812" max="12813" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="7.1640625" style="1" customWidth="1"/>
+    <col min="12815" max="12815" width="8.6640625" style="1" customWidth="1"/>
+    <col min="12816" max="12816" width="13.1640625" style="1" customWidth="1"/>
     <col min="12817" max="13056" width="9" style="1"/>
-    <col min="13057" max="13057" width="1.625" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="5.625" style="1" customWidth="1"/>
-    <col min="13059" max="13063" width="3.625" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="1.6640625" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13059" max="13063" width="3.6640625" style="1" customWidth="1"/>
     <col min="13064" max="13064" width="11" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="11.375" style="1" customWidth="1"/>
-    <col min="13066" max="13066" width="5.625" style="1" customWidth="1"/>
-    <col min="13067" max="13067" width="8.625" style="1" customWidth="1"/>
-    <col min="13068" max="13069" width="5.625" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="7.25" style="1" customWidth="1"/>
-    <col min="13071" max="13071" width="8.625" style="1" customWidth="1"/>
-    <col min="13072" max="13072" width="13.125" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13068" max="13069" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="7.1640625" style="1" customWidth="1"/>
+    <col min="13071" max="13071" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13072" max="13072" width="13.1640625" style="1" customWidth="1"/>
     <col min="13073" max="13312" width="9" style="1"/>
-    <col min="13313" max="13313" width="1.625" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="5.625" style="1" customWidth="1"/>
-    <col min="13315" max="13319" width="3.625" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="1.6640625" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13315" max="13319" width="3.6640625" style="1" customWidth="1"/>
     <col min="13320" max="13320" width="11" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="11.375" style="1" customWidth="1"/>
-    <col min="13322" max="13322" width="5.625" style="1" customWidth="1"/>
-    <col min="13323" max="13323" width="8.625" style="1" customWidth="1"/>
-    <col min="13324" max="13325" width="5.625" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="7.25" style="1" customWidth="1"/>
-    <col min="13327" max="13327" width="8.625" style="1" customWidth="1"/>
-    <col min="13328" max="13328" width="13.125" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13324" max="13325" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="7.1640625" style="1" customWidth="1"/>
+    <col min="13327" max="13327" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13328" max="13328" width="13.1640625" style="1" customWidth="1"/>
     <col min="13329" max="13568" width="9" style="1"/>
-    <col min="13569" max="13569" width="1.625" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="5.625" style="1" customWidth="1"/>
-    <col min="13571" max="13575" width="3.625" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="1.6640625" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13571" max="13575" width="3.6640625" style="1" customWidth="1"/>
     <col min="13576" max="13576" width="11" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="11.375" style="1" customWidth="1"/>
-    <col min="13578" max="13578" width="5.625" style="1" customWidth="1"/>
-    <col min="13579" max="13579" width="8.625" style="1" customWidth="1"/>
-    <col min="13580" max="13581" width="5.625" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="7.25" style="1" customWidth="1"/>
-    <col min="13583" max="13583" width="8.625" style="1" customWidth="1"/>
-    <col min="13584" max="13584" width="13.125" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13580" max="13581" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="7.1640625" style="1" customWidth="1"/>
+    <col min="13583" max="13583" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13584" max="13584" width="13.1640625" style="1" customWidth="1"/>
     <col min="13585" max="13824" width="9" style="1"/>
-    <col min="13825" max="13825" width="1.625" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="5.625" style="1" customWidth="1"/>
-    <col min="13827" max="13831" width="3.625" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="1.6640625" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13827" max="13831" width="3.6640625" style="1" customWidth="1"/>
     <col min="13832" max="13832" width="11" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="11.375" style="1" customWidth="1"/>
-    <col min="13834" max="13834" width="5.625" style="1" customWidth="1"/>
-    <col min="13835" max="13835" width="8.625" style="1" customWidth="1"/>
-    <col min="13836" max="13837" width="5.625" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="7.25" style="1" customWidth="1"/>
-    <col min="13839" max="13839" width="8.625" style="1" customWidth="1"/>
-    <col min="13840" max="13840" width="13.125" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="11.33203125" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13836" max="13837" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="7.1640625" style="1" customWidth="1"/>
+    <col min="13839" max="13839" width="8.6640625" style="1" customWidth="1"/>
+    <col min="13840" max="13840" width="13.1640625" style="1" customWidth="1"/>
     <col min="13841" max="14080" width="9" style="1"/>
-    <col min="14081" max="14081" width="1.625" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="5.625" style="1" customWidth="1"/>
-    <col min="14083" max="14087" width="3.625" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="1.6640625" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14083" max="14087" width="3.6640625" style="1" customWidth="1"/>
     <col min="14088" max="14088" width="11" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="11.375" style="1" customWidth="1"/>
-    <col min="14090" max="14090" width="5.625" style="1" customWidth="1"/>
-    <col min="14091" max="14091" width="8.625" style="1" customWidth="1"/>
-    <col min="14092" max="14093" width="5.625" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="7.25" style="1" customWidth="1"/>
-    <col min="14095" max="14095" width="8.625" style="1" customWidth="1"/>
-    <col min="14096" max="14096" width="13.125" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14092" max="14093" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="7.1640625" style="1" customWidth="1"/>
+    <col min="14095" max="14095" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14096" max="14096" width="13.1640625" style="1" customWidth="1"/>
     <col min="14097" max="14336" width="9" style="1"/>
-    <col min="14337" max="14337" width="1.625" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="5.625" style="1" customWidth="1"/>
-    <col min="14339" max="14343" width="3.625" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="1.6640625" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14339" max="14343" width="3.6640625" style="1" customWidth="1"/>
     <col min="14344" max="14344" width="11" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="11.375" style="1" customWidth="1"/>
-    <col min="14346" max="14346" width="5.625" style="1" customWidth="1"/>
-    <col min="14347" max="14347" width="8.625" style="1" customWidth="1"/>
-    <col min="14348" max="14349" width="5.625" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="7.25" style="1" customWidth="1"/>
-    <col min="14351" max="14351" width="8.625" style="1" customWidth="1"/>
-    <col min="14352" max="14352" width="13.125" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14348" max="14349" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="7.1640625" style="1" customWidth="1"/>
+    <col min="14351" max="14351" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14352" max="14352" width="13.1640625" style="1" customWidth="1"/>
     <col min="14353" max="14592" width="9" style="1"/>
-    <col min="14593" max="14593" width="1.625" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="5.625" style="1" customWidth="1"/>
-    <col min="14595" max="14599" width="3.625" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="1.6640625" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14595" max="14599" width="3.6640625" style="1" customWidth="1"/>
     <col min="14600" max="14600" width="11" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="11.375" style="1" customWidth="1"/>
-    <col min="14602" max="14602" width="5.625" style="1" customWidth="1"/>
-    <col min="14603" max="14603" width="8.625" style="1" customWidth="1"/>
-    <col min="14604" max="14605" width="5.625" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="7.25" style="1" customWidth="1"/>
-    <col min="14607" max="14607" width="8.625" style="1" customWidth="1"/>
-    <col min="14608" max="14608" width="13.125" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14604" max="14605" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="7.1640625" style="1" customWidth="1"/>
+    <col min="14607" max="14607" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14608" max="14608" width="13.1640625" style="1" customWidth="1"/>
     <col min="14609" max="14848" width="9" style="1"/>
-    <col min="14849" max="14849" width="1.625" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="5.625" style="1" customWidth="1"/>
-    <col min="14851" max="14855" width="3.625" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="1.6640625" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14851" max="14855" width="3.6640625" style="1" customWidth="1"/>
     <col min="14856" max="14856" width="11" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="11.375" style="1" customWidth="1"/>
-    <col min="14858" max="14858" width="5.625" style="1" customWidth="1"/>
-    <col min="14859" max="14859" width="8.625" style="1" customWidth="1"/>
-    <col min="14860" max="14861" width="5.625" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="7.25" style="1" customWidth="1"/>
-    <col min="14863" max="14863" width="8.625" style="1" customWidth="1"/>
-    <col min="14864" max="14864" width="13.125" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14860" max="14861" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="7.1640625" style="1" customWidth="1"/>
+    <col min="14863" max="14863" width="8.6640625" style="1" customWidth="1"/>
+    <col min="14864" max="14864" width="13.1640625" style="1" customWidth="1"/>
     <col min="14865" max="15104" width="9" style="1"/>
-    <col min="15105" max="15105" width="1.625" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="5.625" style="1" customWidth="1"/>
-    <col min="15107" max="15111" width="3.625" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15107" max="15111" width="3.6640625" style="1" customWidth="1"/>
     <col min="15112" max="15112" width="11" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="11.375" style="1" customWidth="1"/>
-    <col min="15114" max="15114" width="5.625" style="1" customWidth="1"/>
-    <col min="15115" max="15115" width="8.625" style="1" customWidth="1"/>
-    <col min="15116" max="15117" width="5.625" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="7.25" style="1" customWidth="1"/>
-    <col min="15119" max="15119" width="8.625" style="1" customWidth="1"/>
-    <col min="15120" max="15120" width="13.125" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15116" max="15117" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="7.1640625" style="1" customWidth="1"/>
+    <col min="15119" max="15119" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15120" max="15120" width="13.1640625" style="1" customWidth="1"/>
     <col min="15121" max="15360" width="9" style="1"/>
-    <col min="15361" max="15361" width="1.625" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="5.625" style="1" customWidth="1"/>
-    <col min="15363" max="15367" width="3.625" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15363" max="15367" width="3.6640625" style="1" customWidth="1"/>
     <col min="15368" max="15368" width="11" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="11.375" style="1" customWidth="1"/>
-    <col min="15370" max="15370" width="5.625" style="1" customWidth="1"/>
-    <col min="15371" max="15371" width="8.625" style="1" customWidth="1"/>
-    <col min="15372" max="15373" width="5.625" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="7.25" style="1" customWidth="1"/>
-    <col min="15375" max="15375" width="8.625" style="1" customWidth="1"/>
-    <col min="15376" max="15376" width="13.125" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15372" max="15373" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="7.1640625" style="1" customWidth="1"/>
+    <col min="15375" max="15375" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15376" max="15376" width="13.1640625" style="1" customWidth="1"/>
     <col min="15377" max="15616" width="9" style="1"/>
-    <col min="15617" max="15617" width="1.625" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="5.625" style="1" customWidth="1"/>
-    <col min="15619" max="15623" width="3.625" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15619" max="15623" width="3.6640625" style="1" customWidth="1"/>
     <col min="15624" max="15624" width="11" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="11.375" style="1" customWidth="1"/>
-    <col min="15626" max="15626" width="5.625" style="1" customWidth="1"/>
-    <col min="15627" max="15627" width="8.625" style="1" customWidth="1"/>
-    <col min="15628" max="15629" width="5.625" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="7.25" style="1" customWidth="1"/>
-    <col min="15631" max="15631" width="8.625" style="1" customWidth="1"/>
-    <col min="15632" max="15632" width="13.125" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15628" max="15629" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="7.1640625" style="1" customWidth="1"/>
+    <col min="15631" max="15631" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15632" max="15632" width="13.1640625" style="1" customWidth="1"/>
     <col min="15633" max="15872" width="9" style="1"/>
-    <col min="15873" max="15873" width="1.625" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="5.625" style="1" customWidth="1"/>
-    <col min="15875" max="15879" width="3.625" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15875" max="15879" width="3.6640625" style="1" customWidth="1"/>
     <col min="15880" max="15880" width="11" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="11.375" style="1" customWidth="1"/>
-    <col min="15882" max="15882" width="5.625" style="1" customWidth="1"/>
-    <col min="15883" max="15883" width="8.625" style="1" customWidth="1"/>
-    <col min="15884" max="15885" width="5.625" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="7.25" style="1" customWidth="1"/>
-    <col min="15887" max="15887" width="8.625" style="1" customWidth="1"/>
-    <col min="15888" max="15888" width="13.125" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="11.33203125" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15884" max="15885" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="7.1640625" style="1" customWidth="1"/>
+    <col min="15887" max="15887" width="8.6640625" style="1" customWidth="1"/>
+    <col min="15888" max="15888" width="13.1640625" style="1" customWidth="1"/>
     <col min="15889" max="16128" width="9" style="1"/>
-    <col min="16129" max="16129" width="1.625" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="5.625" style="1" customWidth="1"/>
-    <col min="16131" max="16135" width="3.625" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="1.6640625" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16131" max="16135" width="3.6640625" style="1" customWidth="1"/>
     <col min="16136" max="16136" width="11" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="11.375" style="1" customWidth="1"/>
-    <col min="16138" max="16138" width="5.625" style="1" customWidth="1"/>
-    <col min="16139" max="16139" width="8.625" style="1" customWidth="1"/>
-    <col min="16140" max="16141" width="5.625" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="7.25" style="1" customWidth="1"/>
-    <col min="16143" max="16143" width="8.625" style="1" customWidth="1"/>
-    <col min="16144" max="16144" width="13.125" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16140" max="16141" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="7.1640625" style="1" customWidth="1"/>
+    <col min="16143" max="16143" width="8.6640625" style="1" customWidth="1"/>
+    <col min="16144" max="16144" width="13.1640625" style="1" customWidth="1"/>
     <col min="16145" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
       <c r="Q1" s="2"/>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1">
@@ -2835,12 +2849,12 @@
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
       <c r="I18" s="27"/>
       <c r="J18" s="27"/>
       <c r="O18" s="4"/>
@@ -2880,12 +2894,12 @@
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="28"/>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
       <c r="O22" s="4"/>
@@ -3502,7 +3516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3512,776 +3526,775 @@
       <selection activeCell="M10" sqref="M10:M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="1" customWidth="1"/>
-    <col min="3" max="7" width="3.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3" max="7" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="13.1640625" style="1" customWidth="1"/>
     <col min="17" max="256" width="9" style="1"/>
-    <col min="257" max="257" width="1.625" style="1" customWidth="1"/>
-    <col min="258" max="258" width="4.75" style="1" customWidth="1"/>
-    <col min="259" max="263" width="3.625" style="1" customWidth="1"/>
-    <col min="264" max="264" width="11.25" style="1" customWidth="1"/>
-    <col min="265" max="265" width="10.25" style="1" customWidth="1"/>
-    <col min="266" max="266" width="5.625" style="1" customWidth="1"/>
-    <col min="267" max="267" width="7.625" style="1" customWidth="1"/>
-    <col min="268" max="269" width="5.625" style="1" customWidth="1"/>
-    <col min="270" max="270" width="6.625" style="1" customWidth="1"/>
-    <col min="271" max="271" width="9.75" style="1" customWidth="1"/>
-    <col min="272" max="272" width="13.125" style="1" customWidth="1"/>
+    <col min="257" max="257" width="1.6640625" style="1" customWidth="1"/>
+    <col min="258" max="258" width="4.6640625" style="1" customWidth="1"/>
+    <col min="259" max="263" width="3.6640625" style="1" customWidth="1"/>
+    <col min="264" max="264" width="11.1640625" style="1" customWidth="1"/>
+    <col min="265" max="265" width="10.1640625" style="1" customWidth="1"/>
+    <col min="266" max="266" width="5.6640625" style="1" customWidth="1"/>
+    <col min="267" max="267" width="7.6640625" style="1" customWidth="1"/>
+    <col min="268" max="269" width="5.6640625" style="1" customWidth="1"/>
+    <col min="270" max="270" width="6.6640625" style="1" customWidth="1"/>
+    <col min="271" max="271" width="9.6640625" style="1" customWidth="1"/>
+    <col min="272" max="272" width="13.1640625" style="1" customWidth="1"/>
     <col min="273" max="512" width="9" style="1"/>
-    <col min="513" max="513" width="1.625" style="1" customWidth="1"/>
-    <col min="514" max="514" width="4.75" style="1" customWidth="1"/>
-    <col min="515" max="519" width="3.625" style="1" customWidth="1"/>
-    <col min="520" max="520" width="11.25" style="1" customWidth="1"/>
-    <col min="521" max="521" width="10.25" style="1" customWidth="1"/>
-    <col min="522" max="522" width="5.625" style="1" customWidth="1"/>
-    <col min="523" max="523" width="7.625" style="1" customWidth="1"/>
-    <col min="524" max="525" width="5.625" style="1" customWidth="1"/>
-    <col min="526" max="526" width="6.625" style="1" customWidth="1"/>
-    <col min="527" max="527" width="9.75" style="1" customWidth="1"/>
-    <col min="528" max="528" width="13.125" style="1" customWidth="1"/>
+    <col min="513" max="513" width="1.6640625" style="1" customWidth="1"/>
+    <col min="514" max="514" width="4.6640625" style="1" customWidth="1"/>
+    <col min="515" max="519" width="3.6640625" style="1" customWidth="1"/>
+    <col min="520" max="520" width="11.1640625" style="1" customWidth="1"/>
+    <col min="521" max="521" width="10.1640625" style="1" customWidth="1"/>
+    <col min="522" max="522" width="5.6640625" style="1" customWidth="1"/>
+    <col min="523" max="523" width="7.6640625" style="1" customWidth="1"/>
+    <col min="524" max="525" width="5.6640625" style="1" customWidth="1"/>
+    <col min="526" max="526" width="6.6640625" style="1" customWidth="1"/>
+    <col min="527" max="527" width="9.6640625" style="1" customWidth="1"/>
+    <col min="528" max="528" width="13.1640625" style="1" customWidth="1"/>
     <col min="529" max="768" width="9" style="1"/>
-    <col min="769" max="769" width="1.625" style="1" customWidth="1"/>
-    <col min="770" max="770" width="4.75" style="1" customWidth="1"/>
-    <col min="771" max="775" width="3.625" style="1" customWidth="1"/>
-    <col min="776" max="776" width="11.25" style="1" customWidth="1"/>
-    <col min="777" max="777" width="10.25" style="1" customWidth="1"/>
-    <col min="778" max="778" width="5.625" style="1" customWidth="1"/>
-    <col min="779" max="779" width="7.625" style="1" customWidth="1"/>
-    <col min="780" max="781" width="5.625" style="1" customWidth="1"/>
-    <col min="782" max="782" width="6.625" style="1" customWidth="1"/>
-    <col min="783" max="783" width="9.75" style="1" customWidth="1"/>
-    <col min="784" max="784" width="13.125" style="1" customWidth="1"/>
+    <col min="769" max="769" width="1.6640625" style="1" customWidth="1"/>
+    <col min="770" max="770" width="4.6640625" style="1" customWidth="1"/>
+    <col min="771" max="775" width="3.6640625" style="1" customWidth="1"/>
+    <col min="776" max="776" width="11.1640625" style="1" customWidth="1"/>
+    <col min="777" max="777" width="10.1640625" style="1" customWidth="1"/>
+    <col min="778" max="778" width="5.6640625" style="1" customWidth="1"/>
+    <col min="779" max="779" width="7.6640625" style="1" customWidth="1"/>
+    <col min="780" max="781" width="5.6640625" style="1" customWidth="1"/>
+    <col min="782" max="782" width="6.6640625" style="1" customWidth="1"/>
+    <col min="783" max="783" width="9.6640625" style="1" customWidth="1"/>
+    <col min="784" max="784" width="13.1640625" style="1" customWidth="1"/>
     <col min="785" max="1024" width="9" style="1"/>
-    <col min="1025" max="1025" width="1.625" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="4.75" style="1" customWidth="1"/>
-    <col min="1027" max="1031" width="3.625" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="11.25" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="10.25" style="1" customWidth="1"/>
-    <col min="1034" max="1034" width="5.625" style="1" customWidth="1"/>
-    <col min="1035" max="1035" width="7.625" style="1" customWidth="1"/>
-    <col min="1036" max="1037" width="5.625" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="6.625" style="1" customWidth="1"/>
-    <col min="1039" max="1039" width="9.75" style="1" customWidth="1"/>
-    <col min="1040" max="1040" width="13.125" style="1" customWidth="1"/>
+    <col min="1025" max="1025" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1027" max="1031" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="10.1640625" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1035" max="1035" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1036" max="1037" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1039" max="1039" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1040" max="1040" width="13.1640625" style="1" customWidth="1"/>
     <col min="1041" max="1280" width="9" style="1"/>
-    <col min="1281" max="1281" width="1.625" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="4.75" style="1" customWidth="1"/>
-    <col min="1283" max="1287" width="3.625" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="11.25" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="10.25" style="1" customWidth="1"/>
-    <col min="1290" max="1290" width="5.625" style="1" customWidth="1"/>
-    <col min="1291" max="1291" width="7.625" style="1" customWidth="1"/>
-    <col min="1292" max="1293" width="5.625" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="6.625" style="1" customWidth="1"/>
-    <col min="1295" max="1295" width="9.75" style="1" customWidth="1"/>
-    <col min="1296" max="1296" width="13.125" style="1" customWidth="1"/>
+    <col min="1281" max="1281" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1283" max="1287" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="10.1640625" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1291" max="1291" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1292" max="1293" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1295" max="1295" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1296" max="1296" width="13.1640625" style="1" customWidth="1"/>
     <col min="1297" max="1536" width="9" style="1"/>
-    <col min="1537" max="1537" width="1.625" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="4.75" style="1" customWidth="1"/>
-    <col min="1539" max="1543" width="3.625" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="11.25" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="10.25" style="1" customWidth="1"/>
-    <col min="1546" max="1546" width="5.625" style="1" customWidth="1"/>
-    <col min="1547" max="1547" width="7.625" style="1" customWidth="1"/>
-    <col min="1548" max="1549" width="5.625" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="6.625" style="1" customWidth="1"/>
-    <col min="1551" max="1551" width="9.75" style="1" customWidth="1"/>
-    <col min="1552" max="1552" width="13.125" style="1" customWidth="1"/>
+    <col min="1537" max="1537" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1539" max="1543" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="10.1640625" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1547" max="1547" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1548" max="1549" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1551" max="1551" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1552" max="1552" width="13.1640625" style="1" customWidth="1"/>
     <col min="1553" max="1792" width="9" style="1"/>
-    <col min="1793" max="1793" width="1.625" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="4.75" style="1" customWidth="1"/>
-    <col min="1795" max="1799" width="3.625" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="11.25" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="10.25" style="1" customWidth="1"/>
-    <col min="1802" max="1802" width="5.625" style="1" customWidth="1"/>
-    <col min="1803" max="1803" width="7.625" style="1" customWidth="1"/>
-    <col min="1804" max="1805" width="5.625" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="6.625" style="1" customWidth="1"/>
-    <col min="1807" max="1807" width="9.75" style="1" customWidth="1"/>
-    <col min="1808" max="1808" width="13.125" style="1" customWidth="1"/>
+    <col min="1793" max="1793" width="1.6640625" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="4.6640625" style="1" customWidth="1"/>
+    <col min="1795" max="1799" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="11.1640625" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="10.1640625" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1803" max="1803" width="7.6640625" style="1" customWidth="1"/>
+    <col min="1804" max="1805" width="5.6640625" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="6.6640625" style="1" customWidth="1"/>
+    <col min="1807" max="1807" width="9.6640625" style="1" customWidth="1"/>
+    <col min="1808" max="1808" width="13.1640625" style="1" customWidth="1"/>
     <col min="1809" max="2048" width="9" style="1"/>
-    <col min="2049" max="2049" width="1.625" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="4.75" style="1" customWidth="1"/>
-    <col min="2051" max="2055" width="3.625" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="11.25" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="10.25" style="1" customWidth="1"/>
-    <col min="2058" max="2058" width="5.625" style="1" customWidth="1"/>
-    <col min="2059" max="2059" width="7.625" style="1" customWidth="1"/>
-    <col min="2060" max="2061" width="5.625" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="6.625" style="1" customWidth="1"/>
-    <col min="2063" max="2063" width="9.75" style="1" customWidth="1"/>
-    <col min="2064" max="2064" width="13.125" style="1" customWidth="1"/>
+    <col min="2049" max="2049" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2051" max="2055" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="10.1640625" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2059" max="2059" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2060" max="2061" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2063" max="2063" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2064" max="2064" width="13.1640625" style="1" customWidth="1"/>
     <col min="2065" max="2304" width="9" style="1"/>
-    <col min="2305" max="2305" width="1.625" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="4.75" style="1" customWidth="1"/>
-    <col min="2307" max="2311" width="3.625" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="11.25" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="10.25" style="1" customWidth="1"/>
-    <col min="2314" max="2314" width="5.625" style="1" customWidth="1"/>
-    <col min="2315" max="2315" width="7.625" style="1" customWidth="1"/>
-    <col min="2316" max="2317" width="5.625" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="6.625" style="1" customWidth="1"/>
-    <col min="2319" max="2319" width="9.75" style="1" customWidth="1"/>
-    <col min="2320" max="2320" width="13.125" style="1" customWidth="1"/>
+    <col min="2305" max="2305" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2307" max="2311" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="10.1640625" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2315" max="2315" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2316" max="2317" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2319" max="2319" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2320" max="2320" width="13.1640625" style="1" customWidth="1"/>
     <col min="2321" max="2560" width="9" style="1"/>
-    <col min="2561" max="2561" width="1.625" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="4.75" style="1" customWidth="1"/>
-    <col min="2563" max="2567" width="3.625" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="11.25" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="10.25" style="1" customWidth="1"/>
-    <col min="2570" max="2570" width="5.625" style="1" customWidth="1"/>
-    <col min="2571" max="2571" width="7.625" style="1" customWidth="1"/>
-    <col min="2572" max="2573" width="5.625" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="6.625" style="1" customWidth="1"/>
-    <col min="2575" max="2575" width="9.75" style="1" customWidth="1"/>
-    <col min="2576" max="2576" width="13.125" style="1" customWidth="1"/>
+    <col min="2561" max="2561" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2563" max="2567" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="10.1640625" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2571" max="2571" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2572" max="2573" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2575" max="2575" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2576" max="2576" width="13.1640625" style="1" customWidth="1"/>
     <col min="2577" max="2816" width="9" style="1"/>
-    <col min="2817" max="2817" width="1.625" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="4.75" style="1" customWidth="1"/>
-    <col min="2819" max="2823" width="3.625" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="11.25" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="10.25" style="1" customWidth="1"/>
-    <col min="2826" max="2826" width="5.625" style="1" customWidth="1"/>
-    <col min="2827" max="2827" width="7.625" style="1" customWidth="1"/>
-    <col min="2828" max="2829" width="5.625" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="6.625" style="1" customWidth="1"/>
-    <col min="2831" max="2831" width="9.75" style="1" customWidth="1"/>
-    <col min="2832" max="2832" width="13.125" style="1" customWidth="1"/>
+    <col min="2817" max="2817" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="4.6640625" style="1" customWidth="1"/>
+    <col min="2819" max="2823" width="3.6640625" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="11.1640625" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="10.1640625" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2827" max="2827" width="7.6640625" style="1" customWidth="1"/>
+    <col min="2828" max="2829" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="6.6640625" style="1" customWidth="1"/>
+    <col min="2831" max="2831" width="9.6640625" style="1" customWidth="1"/>
+    <col min="2832" max="2832" width="13.1640625" style="1" customWidth="1"/>
     <col min="2833" max="3072" width="9" style="1"/>
-    <col min="3073" max="3073" width="1.625" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="4.75" style="1" customWidth="1"/>
-    <col min="3075" max="3079" width="3.625" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="11.25" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="10.25" style="1" customWidth="1"/>
-    <col min="3082" max="3082" width="5.625" style="1" customWidth="1"/>
-    <col min="3083" max="3083" width="7.625" style="1" customWidth="1"/>
-    <col min="3084" max="3085" width="5.625" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="6.625" style="1" customWidth="1"/>
-    <col min="3087" max="3087" width="9.75" style="1" customWidth="1"/>
-    <col min="3088" max="3088" width="13.125" style="1" customWidth="1"/>
+    <col min="3073" max="3073" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3075" max="3079" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="10.1640625" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3083" max="3083" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3084" max="3085" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3087" max="3087" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3088" max="3088" width="13.1640625" style="1" customWidth="1"/>
     <col min="3089" max="3328" width="9" style="1"/>
-    <col min="3329" max="3329" width="1.625" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="4.75" style="1" customWidth="1"/>
-    <col min="3331" max="3335" width="3.625" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="11.25" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="10.25" style="1" customWidth="1"/>
-    <col min="3338" max="3338" width="5.625" style="1" customWidth="1"/>
-    <col min="3339" max="3339" width="7.625" style="1" customWidth="1"/>
-    <col min="3340" max="3341" width="5.625" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="6.625" style="1" customWidth="1"/>
-    <col min="3343" max="3343" width="9.75" style="1" customWidth="1"/>
-    <col min="3344" max="3344" width="13.125" style="1" customWidth="1"/>
+    <col min="3329" max="3329" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3331" max="3335" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="10.1640625" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3339" max="3339" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3340" max="3341" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3343" max="3343" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3344" max="3344" width="13.1640625" style="1" customWidth="1"/>
     <col min="3345" max="3584" width="9" style="1"/>
-    <col min="3585" max="3585" width="1.625" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="4.75" style="1" customWidth="1"/>
-    <col min="3587" max="3591" width="3.625" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="11.25" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="10.25" style="1" customWidth="1"/>
-    <col min="3594" max="3594" width="5.625" style="1" customWidth="1"/>
-    <col min="3595" max="3595" width="7.625" style="1" customWidth="1"/>
-    <col min="3596" max="3597" width="5.625" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="6.625" style="1" customWidth="1"/>
-    <col min="3599" max="3599" width="9.75" style="1" customWidth="1"/>
-    <col min="3600" max="3600" width="13.125" style="1" customWidth="1"/>
+    <col min="3585" max="3585" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3587" max="3591" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="10.1640625" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3595" max="3595" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3596" max="3597" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3599" max="3599" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3600" max="3600" width="13.1640625" style="1" customWidth="1"/>
     <col min="3601" max="3840" width="9" style="1"/>
-    <col min="3841" max="3841" width="1.625" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="4.75" style="1" customWidth="1"/>
-    <col min="3843" max="3847" width="3.625" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="11.25" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="10.25" style="1" customWidth="1"/>
-    <col min="3850" max="3850" width="5.625" style="1" customWidth="1"/>
-    <col min="3851" max="3851" width="7.625" style="1" customWidth="1"/>
-    <col min="3852" max="3853" width="5.625" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="6.625" style="1" customWidth="1"/>
-    <col min="3855" max="3855" width="9.75" style="1" customWidth="1"/>
-    <col min="3856" max="3856" width="13.125" style="1" customWidth="1"/>
+    <col min="3841" max="3841" width="1.6640625" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="4.6640625" style="1" customWidth="1"/>
+    <col min="3843" max="3847" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="11.1640625" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="10.1640625" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3851" max="3851" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3852" max="3853" width="5.6640625" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="6.6640625" style="1" customWidth="1"/>
+    <col min="3855" max="3855" width="9.6640625" style="1" customWidth="1"/>
+    <col min="3856" max="3856" width="13.1640625" style="1" customWidth="1"/>
     <col min="3857" max="4096" width="9" style="1"/>
-    <col min="4097" max="4097" width="1.625" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="4.75" style="1" customWidth="1"/>
-    <col min="4099" max="4103" width="3.625" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="11.25" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="10.25" style="1" customWidth="1"/>
-    <col min="4106" max="4106" width="5.625" style="1" customWidth="1"/>
-    <col min="4107" max="4107" width="7.625" style="1" customWidth="1"/>
-    <col min="4108" max="4109" width="5.625" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="6.625" style="1" customWidth="1"/>
-    <col min="4111" max="4111" width="9.75" style="1" customWidth="1"/>
-    <col min="4112" max="4112" width="13.125" style="1" customWidth="1"/>
+    <col min="4097" max="4097" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4099" max="4103" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="10.1640625" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4107" max="4107" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4108" max="4109" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4111" max="4111" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4112" max="4112" width="13.1640625" style="1" customWidth="1"/>
     <col min="4113" max="4352" width="9" style="1"/>
-    <col min="4353" max="4353" width="1.625" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="4.75" style="1" customWidth="1"/>
-    <col min="4355" max="4359" width="3.625" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="11.25" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="10.25" style="1" customWidth="1"/>
-    <col min="4362" max="4362" width="5.625" style="1" customWidth="1"/>
-    <col min="4363" max="4363" width="7.625" style="1" customWidth="1"/>
-    <col min="4364" max="4365" width="5.625" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="6.625" style="1" customWidth="1"/>
-    <col min="4367" max="4367" width="9.75" style="1" customWidth="1"/>
-    <col min="4368" max="4368" width="13.125" style="1" customWidth="1"/>
+    <col min="4353" max="4353" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4355" max="4359" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="10.1640625" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4363" max="4363" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4364" max="4365" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4367" max="4367" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4368" max="4368" width="13.1640625" style="1" customWidth="1"/>
     <col min="4369" max="4608" width="9" style="1"/>
-    <col min="4609" max="4609" width="1.625" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="4.75" style="1" customWidth="1"/>
-    <col min="4611" max="4615" width="3.625" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="11.25" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="10.25" style="1" customWidth="1"/>
-    <col min="4618" max="4618" width="5.625" style="1" customWidth="1"/>
-    <col min="4619" max="4619" width="7.625" style="1" customWidth="1"/>
-    <col min="4620" max="4621" width="5.625" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="6.625" style="1" customWidth="1"/>
-    <col min="4623" max="4623" width="9.75" style="1" customWidth="1"/>
-    <col min="4624" max="4624" width="13.125" style="1" customWidth="1"/>
+    <col min="4609" max="4609" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4611" max="4615" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="10.1640625" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4619" max="4619" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4620" max="4621" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4623" max="4623" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4624" max="4624" width="13.1640625" style="1" customWidth="1"/>
     <col min="4625" max="4864" width="9" style="1"/>
-    <col min="4865" max="4865" width="1.625" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="4.75" style="1" customWidth="1"/>
-    <col min="4867" max="4871" width="3.625" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="11.25" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="10.25" style="1" customWidth="1"/>
-    <col min="4874" max="4874" width="5.625" style="1" customWidth="1"/>
-    <col min="4875" max="4875" width="7.625" style="1" customWidth="1"/>
-    <col min="4876" max="4877" width="5.625" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="6.625" style="1" customWidth="1"/>
-    <col min="4879" max="4879" width="9.75" style="1" customWidth="1"/>
-    <col min="4880" max="4880" width="13.125" style="1" customWidth="1"/>
+    <col min="4865" max="4865" width="1.6640625" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="4.6640625" style="1" customWidth="1"/>
+    <col min="4867" max="4871" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="11.1640625" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="10.1640625" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4875" max="4875" width="7.6640625" style="1" customWidth="1"/>
+    <col min="4876" max="4877" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="6.6640625" style="1" customWidth="1"/>
+    <col min="4879" max="4879" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4880" max="4880" width="13.1640625" style="1" customWidth="1"/>
     <col min="4881" max="5120" width="9" style="1"/>
-    <col min="5121" max="5121" width="1.625" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="4.75" style="1" customWidth="1"/>
-    <col min="5123" max="5127" width="3.625" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="11.25" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="10.25" style="1" customWidth="1"/>
-    <col min="5130" max="5130" width="5.625" style="1" customWidth="1"/>
-    <col min="5131" max="5131" width="7.625" style="1" customWidth="1"/>
-    <col min="5132" max="5133" width="5.625" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="6.625" style="1" customWidth="1"/>
-    <col min="5135" max="5135" width="9.75" style="1" customWidth="1"/>
-    <col min="5136" max="5136" width="13.125" style="1" customWidth="1"/>
+    <col min="5121" max="5121" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5123" max="5127" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="10.1640625" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5131" max="5131" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5132" max="5133" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5135" max="5135" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5136" max="5136" width="13.1640625" style="1" customWidth="1"/>
     <col min="5137" max="5376" width="9" style="1"/>
-    <col min="5377" max="5377" width="1.625" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="4.75" style="1" customWidth="1"/>
-    <col min="5379" max="5383" width="3.625" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="11.25" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="10.25" style="1" customWidth="1"/>
-    <col min="5386" max="5386" width="5.625" style="1" customWidth="1"/>
-    <col min="5387" max="5387" width="7.625" style="1" customWidth="1"/>
-    <col min="5388" max="5389" width="5.625" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="6.625" style="1" customWidth="1"/>
-    <col min="5391" max="5391" width="9.75" style="1" customWidth="1"/>
-    <col min="5392" max="5392" width="13.125" style="1" customWidth="1"/>
+    <col min="5377" max="5377" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5379" max="5383" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="10.1640625" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5387" max="5387" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5388" max="5389" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5391" max="5391" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5392" max="5392" width="13.1640625" style="1" customWidth="1"/>
     <col min="5393" max="5632" width="9" style="1"/>
-    <col min="5633" max="5633" width="1.625" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="4.75" style="1" customWidth="1"/>
-    <col min="5635" max="5639" width="3.625" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="11.25" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="10.25" style="1" customWidth="1"/>
-    <col min="5642" max="5642" width="5.625" style="1" customWidth="1"/>
-    <col min="5643" max="5643" width="7.625" style="1" customWidth="1"/>
-    <col min="5644" max="5645" width="5.625" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="6.625" style="1" customWidth="1"/>
-    <col min="5647" max="5647" width="9.75" style="1" customWidth="1"/>
-    <col min="5648" max="5648" width="13.125" style="1" customWidth="1"/>
+    <col min="5633" max="5633" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5635" max="5639" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="10.1640625" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5643" max="5643" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5644" max="5645" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5647" max="5647" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5648" max="5648" width="13.1640625" style="1" customWidth="1"/>
     <col min="5649" max="5888" width="9" style="1"/>
-    <col min="5889" max="5889" width="1.625" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="4.75" style="1" customWidth="1"/>
-    <col min="5891" max="5895" width="3.625" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="11.25" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="10.25" style="1" customWidth="1"/>
-    <col min="5898" max="5898" width="5.625" style="1" customWidth="1"/>
-    <col min="5899" max="5899" width="7.625" style="1" customWidth="1"/>
-    <col min="5900" max="5901" width="5.625" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="6.625" style="1" customWidth="1"/>
-    <col min="5903" max="5903" width="9.75" style="1" customWidth="1"/>
-    <col min="5904" max="5904" width="13.125" style="1" customWidth="1"/>
+    <col min="5889" max="5889" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="4.6640625" style="1" customWidth="1"/>
+    <col min="5891" max="5895" width="3.6640625" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="11.1640625" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="10.1640625" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5899" max="5899" width="7.6640625" style="1" customWidth="1"/>
+    <col min="5900" max="5901" width="5.6640625" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="6.6640625" style="1" customWidth="1"/>
+    <col min="5903" max="5903" width="9.6640625" style="1" customWidth="1"/>
+    <col min="5904" max="5904" width="13.1640625" style="1" customWidth="1"/>
     <col min="5905" max="6144" width="9" style="1"/>
-    <col min="6145" max="6145" width="1.625" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="4.75" style="1" customWidth="1"/>
-    <col min="6147" max="6151" width="3.625" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="11.25" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="10.25" style="1" customWidth="1"/>
-    <col min="6154" max="6154" width="5.625" style="1" customWidth="1"/>
-    <col min="6155" max="6155" width="7.625" style="1" customWidth="1"/>
-    <col min="6156" max="6157" width="5.625" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="6.625" style="1" customWidth="1"/>
-    <col min="6159" max="6159" width="9.75" style="1" customWidth="1"/>
-    <col min="6160" max="6160" width="13.125" style="1" customWidth="1"/>
+    <col min="6145" max="6145" width="1.6640625" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6147" max="6151" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6155" max="6155" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6156" max="6157" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6159" max="6159" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6160" max="6160" width="13.1640625" style="1" customWidth="1"/>
     <col min="6161" max="6400" width="9" style="1"/>
-    <col min="6401" max="6401" width="1.625" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="4.75" style="1" customWidth="1"/>
-    <col min="6403" max="6407" width="3.625" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="11.25" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="10.25" style="1" customWidth="1"/>
-    <col min="6410" max="6410" width="5.625" style="1" customWidth="1"/>
-    <col min="6411" max="6411" width="7.625" style="1" customWidth="1"/>
-    <col min="6412" max="6413" width="5.625" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="6.625" style="1" customWidth="1"/>
-    <col min="6415" max="6415" width="9.75" style="1" customWidth="1"/>
-    <col min="6416" max="6416" width="13.125" style="1" customWidth="1"/>
+    <col min="6401" max="6401" width="1.6640625" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6403" max="6407" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6411" max="6411" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6412" max="6413" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6415" max="6415" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6416" max="6416" width="13.1640625" style="1" customWidth="1"/>
     <col min="6417" max="6656" width="9" style="1"/>
-    <col min="6657" max="6657" width="1.625" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="4.75" style="1" customWidth="1"/>
-    <col min="6659" max="6663" width="3.625" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="11.25" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="10.25" style="1" customWidth="1"/>
-    <col min="6666" max="6666" width="5.625" style="1" customWidth="1"/>
-    <col min="6667" max="6667" width="7.625" style="1" customWidth="1"/>
-    <col min="6668" max="6669" width="5.625" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="6.625" style="1" customWidth="1"/>
-    <col min="6671" max="6671" width="9.75" style="1" customWidth="1"/>
-    <col min="6672" max="6672" width="13.125" style="1" customWidth="1"/>
+    <col min="6657" max="6657" width="1.6640625" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6659" max="6663" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6667" max="6667" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6668" max="6669" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6671" max="6671" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6672" max="6672" width="13.1640625" style="1" customWidth="1"/>
     <col min="6673" max="6912" width="9" style="1"/>
-    <col min="6913" max="6913" width="1.625" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="4.75" style="1" customWidth="1"/>
-    <col min="6915" max="6919" width="3.625" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="11.25" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="10.25" style="1" customWidth="1"/>
-    <col min="6922" max="6922" width="5.625" style="1" customWidth="1"/>
-    <col min="6923" max="6923" width="7.625" style="1" customWidth="1"/>
-    <col min="6924" max="6925" width="5.625" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="6.625" style="1" customWidth="1"/>
-    <col min="6927" max="6927" width="9.75" style="1" customWidth="1"/>
-    <col min="6928" max="6928" width="13.125" style="1" customWidth="1"/>
+    <col min="6913" max="6913" width="1.6640625" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6915" max="6919" width="3.6640625" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="11.1640625" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="10.1640625" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6923" max="6923" width="7.6640625" style="1" customWidth="1"/>
+    <col min="6924" max="6925" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="6.6640625" style="1" customWidth="1"/>
+    <col min="6927" max="6927" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6928" max="6928" width="13.1640625" style="1" customWidth="1"/>
     <col min="6929" max="7168" width="9" style="1"/>
-    <col min="7169" max="7169" width="1.625" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="4.75" style="1" customWidth="1"/>
-    <col min="7171" max="7175" width="3.625" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="11.25" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="10.25" style="1" customWidth="1"/>
-    <col min="7178" max="7178" width="5.625" style="1" customWidth="1"/>
-    <col min="7179" max="7179" width="7.625" style="1" customWidth="1"/>
-    <col min="7180" max="7181" width="5.625" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="6.625" style="1" customWidth="1"/>
-    <col min="7183" max="7183" width="9.75" style="1" customWidth="1"/>
-    <col min="7184" max="7184" width="13.125" style="1" customWidth="1"/>
+    <col min="7169" max="7169" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7171" max="7175" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="10.1640625" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7179" max="7179" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7180" max="7181" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7183" max="7183" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7184" max="7184" width="13.1640625" style="1" customWidth="1"/>
     <col min="7185" max="7424" width="9" style="1"/>
-    <col min="7425" max="7425" width="1.625" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="4.75" style="1" customWidth="1"/>
-    <col min="7427" max="7431" width="3.625" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="11.25" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="10.25" style="1" customWidth="1"/>
-    <col min="7434" max="7434" width="5.625" style="1" customWidth="1"/>
-    <col min="7435" max="7435" width="7.625" style="1" customWidth="1"/>
-    <col min="7436" max="7437" width="5.625" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="6.625" style="1" customWidth="1"/>
-    <col min="7439" max="7439" width="9.75" style="1" customWidth="1"/>
-    <col min="7440" max="7440" width="13.125" style="1" customWidth="1"/>
+    <col min="7425" max="7425" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7427" max="7431" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="10.1640625" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7435" max="7435" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7436" max="7437" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7439" max="7439" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7440" max="7440" width="13.1640625" style="1" customWidth="1"/>
     <col min="7441" max="7680" width="9" style="1"/>
-    <col min="7681" max="7681" width="1.625" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="4.75" style="1" customWidth="1"/>
-    <col min="7683" max="7687" width="3.625" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="11.25" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="10.25" style="1" customWidth="1"/>
-    <col min="7690" max="7690" width="5.625" style="1" customWidth="1"/>
-    <col min="7691" max="7691" width="7.625" style="1" customWidth="1"/>
-    <col min="7692" max="7693" width="5.625" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="6.625" style="1" customWidth="1"/>
-    <col min="7695" max="7695" width="9.75" style="1" customWidth="1"/>
-    <col min="7696" max="7696" width="13.125" style="1" customWidth="1"/>
+    <col min="7681" max="7681" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7683" max="7687" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="10.1640625" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7691" max="7691" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7692" max="7693" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7695" max="7695" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7696" max="7696" width="13.1640625" style="1" customWidth="1"/>
     <col min="7697" max="7936" width="9" style="1"/>
-    <col min="7937" max="7937" width="1.625" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="4.75" style="1" customWidth="1"/>
-    <col min="7939" max="7943" width="3.625" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="11.25" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="10.25" style="1" customWidth="1"/>
-    <col min="7946" max="7946" width="5.625" style="1" customWidth="1"/>
-    <col min="7947" max="7947" width="7.625" style="1" customWidth="1"/>
-    <col min="7948" max="7949" width="5.625" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="6.625" style="1" customWidth="1"/>
-    <col min="7951" max="7951" width="9.75" style="1" customWidth="1"/>
-    <col min="7952" max="7952" width="13.125" style="1" customWidth="1"/>
+    <col min="7937" max="7937" width="1.6640625" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="4.6640625" style="1" customWidth="1"/>
+    <col min="7939" max="7943" width="3.6640625" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="11.1640625" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="10.1640625" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7947" max="7947" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7948" max="7949" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="6.6640625" style="1" customWidth="1"/>
+    <col min="7951" max="7951" width="9.6640625" style="1" customWidth="1"/>
+    <col min="7952" max="7952" width="13.1640625" style="1" customWidth="1"/>
     <col min="7953" max="8192" width="9" style="1"/>
-    <col min="8193" max="8193" width="1.625" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="4.75" style="1" customWidth="1"/>
-    <col min="8195" max="8199" width="3.625" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="11.25" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="10.25" style="1" customWidth="1"/>
-    <col min="8202" max="8202" width="5.625" style="1" customWidth="1"/>
-    <col min="8203" max="8203" width="7.625" style="1" customWidth="1"/>
-    <col min="8204" max="8205" width="5.625" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="6.625" style="1" customWidth="1"/>
-    <col min="8207" max="8207" width="9.75" style="1" customWidth="1"/>
-    <col min="8208" max="8208" width="13.125" style="1" customWidth="1"/>
+    <col min="8193" max="8193" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="4.6640625" style="1" customWidth="1"/>
+    <col min="8195" max="8199" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8203" max="8203" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8204" max="8205" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8207" max="8207" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8208" max="8208" width="13.1640625" style="1" customWidth="1"/>
     <col min="8209" max="8448" width="9" style="1"/>
-    <col min="8449" max="8449" width="1.625" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="4.75" style="1" customWidth="1"/>
-    <col min="8451" max="8455" width="3.625" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="11.25" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="10.25" style="1" customWidth="1"/>
-    <col min="8458" max="8458" width="5.625" style="1" customWidth="1"/>
-    <col min="8459" max="8459" width="7.625" style="1" customWidth="1"/>
-    <col min="8460" max="8461" width="5.625" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="6.625" style="1" customWidth="1"/>
-    <col min="8463" max="8463" width="9.75" style="1" customWidth="1"/>
-    <col min="8464" max="8464" width="13.125" style="1" customWidth="1"/>
+    <col min="8449" max="8449" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="4.6640625" style="1" customWidth="1"/>
+    <col min="8451" max="8455" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8459" max="8459" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8460" max="8461" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8463" max="8463" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8464" max="8464" width="13.1640625" style="1" customWidth="1"/>
     <col min="8465" max="8704" width="9" style="1"/>
-    <col min="8705" max="8705" width="1.625" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="4.75" style="1" customWidth="1"/>
-    <col min="8707" max="8711" width="3.625" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="11.25" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="10.25" style="1" customWidth="1"/>
-    <col min="8714" max="8714" width="5.625" style="1" customWidth="1"/>
-    <col min="8715" max="8715" width="7.625" style="1" customWidth="1"/>
-    <col min="8716" max="8717" width="5.625" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="6.625" style="1" customWidth="1"/>
-    <col min="8719" max="8719" width="9.75" style="1" customWidth="1"/>
-    <col min="8720" max="8720" width="13.125" style="1" customWidth="1"/>
+    <col min="8705" max="8705" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="4.6640625" style="1" customWidth="1"/>
+    <col min="8707" max="8711" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8715" max="8715" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8716" max="8717" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8719" max="8719" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8720" max="8720" width="13.1640625" style="1" customWidth="1"/>
     <col min="8721" max="8960" width="9" style="1"/>
-    <col min="8961" max="8961" width="1.625" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="4.75" style="1" customWidth="1"/>
-    <col min="8963" max="8967" width="3.625" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="11.25" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="10.25" style="1" customWidth="1"/>
-    <col min="8970" max="8970" width="5.625" style="1" customWidth="1"/>
-    <col min="8971" max="8971" width="7.625" style="1" customWidth="1"/>
-    <col min="8972" max="8973" width="5.625" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="6.625" style="1" customWidth="1"/>
-    <col min="8975" max="8975" width="9.75" style="1" customWidth="1"/>
-    <col min="8976" max="8976" width="13.125" style="1" customWidth="1"/>
+    <col min="8961" max="8961" width="1.6640625" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="4.6640625" style="1" customWidth="1"/>
+    <col min="8963" max="8967" width="3.6640625" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="11.1640625" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="10.1640625" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8971" max="8971" width="7.6640625" style="1" customWidth="1"/>
+    <col min="8972" max="8973" width="5.6640625" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="6.6640625" style="1" customWidth="1"/>
+    <col min="8975" max="8975" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8976" max="8976" width="13.1640625" style="1" customWidth="1"/>
     <col min="8977" max="9216" width="9" style="1"/>
-    <col min="9217" max="9217" width="1.625" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="4.75" style="1" customWidth="1"/>
-    <col min="9219" max="9223" width="3.625" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="11.25" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="10.25" style="1" customWidth="1"/>
-    <col min="9226" max="9226" width="5.625" style="1" customWidth="1"/>
-    <col min="9227" max="9227" width="7.625" style="1" customWidth="1"/>
-    <col min="9228" max="9229" width="5.625" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="6.625" style="1" customWidth="1"/>
-    <col min="9231" max="9231" width="9.75" style="1" customWidth="1"/>
-    <col min="9232" max="9232" width="13.125" style="1" customWidth="1"/>
+    <col min="9217" max="9217" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9219" max="9223" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="10.1640625" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9227" max="9227" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9228" max="9229" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9231" max="9231" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9232" max="9232" width="13.1640625" style="1" customWidth="1"/>
     <col min="9233" max="9472" width="9" style="1"/>
-    <col min="9473" max="9473" width="1.625" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="4.75" style="1" customWidth="1"/>
-    <col min="9475" max="9479" width="3.625" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="11.25" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="10.25" style="1" customWidth="1"/>
-    <col min="9482" max="9482" width="5.625" style="1" customWidth="1"/>
-    <col min="9483" max="9483" width="7.625" style="1" customWidth="1"/>
-    <col min="9484" max="9485" width="5.625" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="6.625" style="1" customWidth="1"/>
-    <col min="9487" max="9487" width="9.75" style="1" customWidth="1"/>
-    <col min="9488" max="9488" width="13.125" style="1" customWidth="1"/>
+    <col min="9473" max="9473" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9475" max="9479" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="10.1640625" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9483" max="9483" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9484" max="9485" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9487" max="9487" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9488" max="9488" width="13.1640625" style="1" customWidth="1"/>
     <col min="9489" max="9728" width="9" style="1"/>
-    <col min="9729" max="9729" width="1.625" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="4.75" style="1" customWidth="1"/>
-    <col min="9731" max="9735" width="3.625" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="11.25" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="10.25" style="1" customWidth="1"/>
-    <col min="9738" max="9738" width="5.625" style="1" customWidth="1"/>
-    <col min="9739" max="9739" width="7.625" style="1" customWidth="1"/>
-    <col min="9740" max="9741" width="5.625" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="6.625" style="1" customWidth="1"/>
-    <col min="9743" max="9743" width="9.75" style="1" customWidth="1"/>
-    <col min="9744" max="9744" width="13.125" style="1" customWidth="1"/>
+    <col min="9729" max="9729" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9731" max="9735" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="10.1640625" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9739" max="9739" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9740" max="9741" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9743" max="9743" width="9.6640625" style="1" customWidth="1"/>
+    <col min="9744" max="9744" width="13.1640625" style="1" customWidth="1"/>
     <col min="9745" max="9984" width="9" style="1"/>
-    <col min="9985" max="9985" width="1.625" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="4.75" style="1" customWidth="1"/>
-    <col min="9987" max="9991" width="3.625" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="11.25" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="10.25" style="1" customWidth="1"/>
-    <col min="9994" max="9994" width="5.625" style="1" customWidth="1"/>
-    <col min="9995" max="9995" width="7.625" style="1" customWidth="1"/>
-    <col min="9996" max="9997" width="5.625" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="6.625" style="1" customWidth="1"/>
-    <col min="9999" max="9999" width="9.75" style="1" customWidth="1"/>
-    <col min="10000" max="10000" width="13.125" style="1" customWidth="1"/>
+    <col min="9985" max="9985" width="1.6640625" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="4.6640625" style="1" customWidth="1"/>
+    <col min="9987" max="9991" width="3.6640625" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="11.1640625" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="10.1640625" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9995" max="9995" width="7.6640625" style="1" customWidth="1"/>
+    <col min="9996" max="9997" width="5.6640625" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="6.6640625" style="1" customWidth="1"/>
+    <col min="9999" max="9999" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10000" max="10000" width="13.1640625" style="1" customWidth="1"/>
     <col min="10001" max="10240" width="9" style="1"/>
-    <col min="10241" max="10241" width="1.625" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="4.75" style="1" customWidth="1"/>
-    <col min="10243" max="10247" width="3.625" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="11.25" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="10.25" style="1" customWidth="1"/>
-    <col min="10250" max="10250" width="5.625" style="1" customWidth="1"/>
-    <col min="10251" max="10251" width="7.625" style="1" customWidth="1"/>
-    <col min="10252" max="10253" width="5.625" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="6.625" style="1" customWidth="1"/>
-    <col min="10255" max="10255" width="9.75" style="1" customWidth="1"/>
-    <col min="10256" max="10256" width="13.125" style="1" customWidth="1"/>
+    <col min="10241" max="10241" width="1.6640625" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10243" max="10247" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="10.1640625" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10251" max="10251" width="7.6640625" style="1" customWidth="1"/>
+    <col min="10252" max="10253" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10255" max="10255" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10256" max="10256" width="13.1640625" style="1" customWidth="1"/>
     <col min="10257" max="10496" width="9" style="1"/>
-    <col min="10497" max="10497" width="1.625" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="4.75" style="1" customWidth="1"/>
-    <col min="10499" max="10503" width="3.625" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="11.25" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="10.25" style="1" customWidth="1"/>
-    <col min="10506" max="10506" width="5.625" style="1" customWidth="1"/>
-    <col min="10507" max="10507" width="7.625" style="1" customWidth="1"/>
-    <col min="10508" max="10509" width="5.625" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="6.625" style="1" customWidth="1"/>
-    <col min="10511" max="10511" width="9.75" style="1" customWidth="1"/>
-    <col min="10512" max="10512" width="13.125" style="1" customWidth="1"/>
+    <col min="10497" max="10497" width="1.6640625" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10499" max="10503" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="10.1640625" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10507" max="10507" width="7.6640625" style="1" customWidth="1"/>
+    <col min="10508" max="10509" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10511" max="10511" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10512" max="10512" width="13.1640625" style="1" customWidth="1"/>
     <col min="10513" max="10752" width="9" style="1"/>
-    <col min="10753" max="10753" width="1.625" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="4.75" style="1" customWidth="1"/>
-    <col min="10755" max="10759" width="3.625" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="11.25" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="10.25" style="1" customWidth="1"/>
-    <col min="10762" max="10762" width="5.625" style="1" customWidth="1"/>
-    <col min="10763" max="10763" width="7.625" style="1" customWidth="1"/>
-    <col min="10764" max="10765" width="5.625" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="6.625" style="1" customWidth="1"/>
-    <col min="10767" max="10767" width="9.75" style="1" customWidth="1"/>
-    <col min="10768" max="10768" width="13.125" style="1" customWidth="1"/>
+    <col min="10753" max="10753" width="1.6640625" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="4.6640625" style="1" customWidth="1"/>
+    <col min="10755" max="10759" width="3.6640625" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="11.1640625" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="10.1640625" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10763" max="10763" width="7.6640625" style="1" customWidth="1"/>
+    <col min="10764" max="10765" width="5.6640625" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="6.6640625" style="1" customWidth="1"/>
+    <col min="10767" max="10767" width="9.6640625" style="1" customWidth="1"/>
+    <col min="10768" max="10768" width="13.1640625" style="1" customWidth="1"/>
     <col min="10769" max="11008" width="9" style="1"/>
-    <col min="11009" max="11009" width="1.625" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="4.75" style="1" customWidth="1"/>
-    <col min="11011" max="11015" width="3.625" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="11.25" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="10.25" style="1" customWidth="1"/>
-    <col min="11018" max="11018" width="5.625" style="1" customWidth="1"/>
-    <col min="11019" max="11019" width="7.625" style="1" customWidth="1"/>
-    <col min="11020" max="11021" width="5.625" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="6.625" style="1" customWidth="1"/>
-    <col min="11023" max="11023" width="9.75" style="1" customWidth="1"/>
-    <col min="11024" max="11024" width="13.125" style="1" customWidth="1"/>
+    <col min="11009" max="11009" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11011" max="11015" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="11.1640625" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11019" max="11019" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11020" max="11021" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11023" max="11023" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11024" max="11024" width="13.1640625" style="1" customWidth="1"/>
     <col min="11025" max="11264" width="9" style="1"/>
-    <col min="11265" max="11265" width="1.625" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="4.75" style="1" customWidth="1"/>
-    <col min="11267" max="11271" width="3.625" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="11.25" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="10.25" style="1" customWidth="1"/>
-    <col min="11274" max="11274" width="5.625" style="1" customWidth="1"/>
-    <col min="11275" max="11275" width="7.625" style="1" customWidth="1"/>
-    <col min="11276" max="11277" width="5.625" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="6.625" style="1" customWidth="1"/>
-    <col min="11279" max="11279" width="9.75" style="1" customWidth="1"/>
-    <col min="11280" max="11280" width="13.125" style="1" customWidth="1"/>
+    <col min="11265" max="11265" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11267" max="11271" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="11.1640625" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11275" max="11275" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11276" max="11277" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11279" max="11279" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11280" max="11280" width="13.1640625" style="1" customWidth="1"/>
     <col min="11281" max="11520" width="9" style="1"/>
-    <col min="11521" max="11521" width="1.625" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="4.75" style="1" customWidth="1"/>
-    <col min="11523" max="11527" width="3.625" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="11.25" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="10.25" style="1" customWidth="1"/>
-    <col min="11530" max="11530" width="5.625" style="1" customWidth="1"/>
-    <col min="11531" max="11531" width="7.625" style="1" customWidth="1"/>
-    <col min="11532" max="11533" width="5.625" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="6.625" style="1" customWidth="1"/>
-    <col min="11535" max="11535" width="9.75" style="1" customWidth="1"/>
-    <col min="11536" max="11536" width="13.125" style="1" customWidth="1"/>
+    <col min="11521" max="11521" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11523" max="11527" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="11.1640625" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11531" max="11531" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11532" max="11533" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11535" max="11535" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11536" max="11536" width="13.1640625" style="1" customWidth="1"/>
     <col min="11537" max="11776" width="9" style="1"/>
-    <col min="11777" max="11777" width="1.625" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="4.75" style="1" customWidth="1"/>
-    <col min="11779" max="11783" width="3.625" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="11.25" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="10.25" style="1" customWidth="1"/>
-    <col min="11786" max="11786" width="5.625" style="1" customWidth="1"/>
-    <col min="11787" max="11787" width="7.625" style="1" customWidth="1"/>
-    <col min="11788" max="11789" width="5.625" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="6.625" style="1" customWidth="1"/>
-    <col min="11791" max="11791" width="9.75" style="1" customWidth="1"/>
-    <col min="11792" max="11792" width="13.125" style="1" customWidth="1"/>
+    <col min="11777" max="11777" width="1.6640625" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="4.6640625" style="1" customWidth="1"/>
+    <col min="11779" max="11783" width="3.6640625" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="11.1640625" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="10.1640625" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11787" max="11787" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11788" max="11789" width="5.6640625" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="6.6640625" style="1" customWidth="1"/>
+    <col min="11791" max="11791" width="9.6640625" style="1" customWidth="1"/>
+    <col min="11792" max="11792" width="13.1640625" style="1" customWidth="1"/>
     <col min="11793" max="12032" width="9" style="1"/>
-    <col min="12033" max="12033" width="1.625" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="4.75" style="1" customWidth="1"/>
-    <col min="12035" max="12039" width="3.625" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="11.25" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="10.25" style="1" customWidth="1"/>
-    <col min="12042" max="12042" width="5.625" style="1" customWidth="1"/>
-    <col min="12043" max="12043" width="7.625" style="1" customWidth="1"/>
-    <col min="12044" max="12045" width="5.625" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="6.625" style="1" customWidth="1"/>
-    <col min="12047" max="12047" width="9.75" style="1" customWidth="1"/>
-    <col min="12048" max="12048" width="13.125" style="1" customWidth="1"/>
+    <col min="12033" max="12033" width="1.6640625" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12035" max="12039" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="11.1640625" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12043" max="12043" width="7.6640625" style="1" customWidth="1"/>
+    <col min="12044" max="12045" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12047" max="12047" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12048" max="12048" width="13.1640625" style="1" customWidth="1"/>
     <col min="12049" max="12288" width="9" style="1"/>
-    <col min="12289" max="12289" width="1.625" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="4.75" style="1" customWidth="1"/>
-    <col min="12291" max="12295" width="3.625" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="11.25" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="10.25" style="1" customWidth="1"/>
-    <col min="12298" max="12298" width="5.625" style="1" customWidth="1"/>
-    <col min="12299" max="12299" width="7.625" style="1" customWidth="1"/>
-    <col min="12300" max="12301" width="5.625" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="6.625" style="1" customWidth="1"/>
-    <col min="12303" max="12303" width="9.75" style="1" customWidth="1"/>
-    <col min="12304" max="12304" width="13.125" style="1" customWidth="1"/>
+    <col min="12289" max="12289" width="1.6640625" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12291" max="12295" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="11.1640625" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12299" max="12299" width="7.6640625" style="1" customWidth="1"/>
+    <col min="12300" max="12301" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12303" max="12303" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12304" max="12304" width="13.1640625" style="1" customWidth="1"/>
     <col min="12305" max="12544" width="9" style="1"/>
-    <col min="12545" max="12545" width="1.625" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="4.75" style="1" customWidth="1"/>
-    <col min="12547" max="12551" width="3.625" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="11.25" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="10.25" style="1" customWidth="1"/>
-    <col min="12554" max="12554" width="5.625" style="1" customWidth="1"/>
-    <col min="12555" max="12555" width="7.625" style="1" customWidth="1"/>
-    <col min="12556" max="12557" width="5.625" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="6.625" style="1" customWidth="1"/>
-    <col min="12559" max="12559" width="9.75" style="1" customWidth="1"/>
-    <col min="12560" max="12560" width="13.125" style="1" customWidth="1"/>
+    <col min="12545" max="12545" width="1.6640625" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12547" max="12551" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="11.1640625" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12555" max="12555" width="7.6640625" style="1" customWidth="1"/>
+    <col min="12556" max="12557" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12559" max="12559" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12560" max="12560" width="13.1640625" style="1" customWidth="1"/>
     <col min="12561" max="12800" width="9" style="1"/>
-    <col min="12801" max="12801" width="1.625" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="4.75" style="1" customWidth="1"/>
-    <col min="12803" max="12807" width="3.625" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="11.25" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="10.25" style="1" customWidth="1"/>
-    <col min="12810" max="12810" width="5.625" style="1" customWidth="1"/>
-    <col min="12811" max="12811" width="7.625" style="1" customWidth="1"/>
-    <col min="12812" max="12813" width="5.625" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="6.625" style="1" customWidth="1"/>
-    <col min="12815" max="12815" width="9.75" style="1" customWidth="1"/>
-    <col min="12816" max="12816" width="13.125" style="1" customWidth="1"/>
+    <col min="12801" max="12801" width="1.6640625" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="4.6640625" style="1" customWidth="1"/>
+    <col min="12803" max="12807" width="3.6640625" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="11.1640625" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="10.1640625" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12811" max="12811" width="7.6640625" style="1" customWidth="1"/>
+    <col min="12812" max="12813" width="5.6640625" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="6.6640625" style="1" customWidth="1"/>
+    <col min="12815" max="12815" width="9.6640625" style="1" customWidth="1"/>
+    <col min="12816" max="12816" width="13.1640625" style="1" customWidth="1"/>
     <col min="12817" max="13056" width="9" style="1"/>
-    <col min="13057" max="13057" width="1.625" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="4.75" style="1" customWidth="1"/>
-    <col min="13059" max="13063" width="3.625" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="11.25" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="10.25" style="1" customWidth="1"/>
-    <col min="13066" max="13066" width="5.625" style="1" customWidth="1"/>
-    <col min="13067" max="13067" width="7.625" style="1" customWidth="1"/>
-    <col min="13068" max="13069" width="5.625" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="6.625" style="1" customWidth="1"/>
-    <col min="13071" max="13071" width="9.75" style="1" customWidth="1"/>
-    <col min="13072" max="13072" width="13.125" style="1" customWidth="1"/>
+    <col min="13057" max="13057" width="1.6640625" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13059" max="13063" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="10.1640625" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13067" max="13067" width="7.6640625" style="1" customWidth="1"/>
+    <col min="13068" max="13069" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13071" max="13071" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13072" max="13072" width="13.1640625" style="1" customWidth="1"/>
     <col min="13073" max="13312" width="9" style="1"/>
-    <col min="13313" max="13313" width="1.625" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="4.75" style="1" customWidth="1"/>
-    <col min="13315" max="13319" width="3.625" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="11.25" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="10.25" style="1" customWidth="1"/>
-    <col min="13322" max="13322" width="5.625" style="1" customWidth="1"/>
-    <col min="13323" max="13323" width="7.625" style="1" customWidth="1"/>
-    <col min="13324" max="13325" width="5.625" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="6.625" style="1" customWidth="1"/>
-    <col min="13327" max="13327" width="9.75" style="1" customWidth="1"/>
-    <col min="13328" max="13328" width="13.125" style="1" customWidth="1"/>
+    <col min="13313" max="13313" width="1.6640625" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13315" max="13319" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="10.1640625" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13323" max="13323" width="7.6640625" style="1" customWidth="1"/>
+    <col min="13324" max="13325" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13327" max="13327" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13328" max="13328" width="13.1640625" style="1" customWidth="1"/>
     <col min="13329" max="13568" width="9" style="1"/>
-    <col min="13569" max="13569" width="1.625" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="4.75" style="1" customWidth="1"/>
-    <col min="13571" max="13575" width="3.625" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="11.25" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="10.25" style="1" customWidth="1"/>
-    <col min="13578" max="13578" width="5.625" style="1" customWidth="1"/>
-    <col min="13579" max="13579" width="7.625" style="1" customWidth="1"/>
-    <col min="13580" max="13581" width="5.625" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="6.625" style="1" customWidth="1"/>
-    <col min="13583" max="13583" width="9.75" style="1" customWidth="1"/>
-    <col min="13584" max="13584" width="13.125" style="1" customWidth="1"/>
+    <col min="13569" max="13569" width="1.6640625" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13571" max="13575" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="10.1640625" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13579" max="13579" width="7.6640625" style="1" customWidth="1"/>
+    <col min="13580" max="13581" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13583" max="13583" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13584" max="13584" width="13.1640625" style="1" customWidth="1"/>
     <col min="13585" max="13824" width="9" style="1"/>
-    <col min="13825" max="13825" width="1.625" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="4.75" style="1" customWidth="1"/>
-    <col min="13827" max="13831" width="3.625" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="11.25" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="10.25" style="1" customWidth="1"/>
-    <col min="13834" max="13834" width="5.625" style="1" customWidth="1"/>
-    <col min="13835" max="13835" width="7.625" style="1" customWidth="1"/>
-    <col min="13836" max="13837" width="5.625" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="6.625" style="1" customWidth="1"/>
-    <col min="13839" max="13839" width="9.75" style="1" customWidth="1"/>
-    <col min="13840" max="13840" width="13.125" style="1" customWidth="1"/>
+    <col min="13825" max="13825" width="1.6640625" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="4.6640625" style="1" customWidth="1"/>
+    <col min="13827" max="13831" width="3.6640625" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="11.1640625" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="10.1640625" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13835" max="13835" width="7.6640625" style="1" customWidth="1"/>
+    <col min="13836" max="13837" width="5.6640625" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="6.6640625" style="1" customWidth="1"/>
+    <col min="13839" max="13839" width="9.6640625" style="1" customWidth="1"/>
+    <col min="13840" max="13840" width="13.1640625" style="1" customWidth="1"/>
     <col min="13841" max="14080" width="9" style="1"/>
-    <col min="14081" max="14081" width="1.625" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="4.75" style="1" customWidth="1"/>
-    <col min="14083" max="14087" width="3.625" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="11.25" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="10.25" style="1" customWidth="1"/>
-    <col min="14090" max="14090" width="5.625" style="1" customWidth="1"/>
-    <col min="14091" max="14091" width="7.625" style="1" customWidth="1"/>
-    <col min="14092" max="14093" width="5.625" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="6.625" style="1" customWidth="1"/>
-    <col min="14095" max="14095" width="9.75" style="1" customWidth="1"/>
-    <col min="14096" max="14096" width="13.125" style="1" customWidth="1"/>
+    <col min="14081" max="14081" width="1.6640625" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14083" max="14087" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="10.1640625" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14091" max="14091" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14092" max="14093" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14095" max="14095" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14096" max="14096" width="13.1640625" style="1" customWidth="1"/>
     <col min="14097" max="14336" width="9" style="1"/>
-    <col min="14337" max="14337" width="1.625" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="4.75" style="1" customWidth="1"/>
-    <col min="14339" max="14343" width="3.625" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="11.25" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="10.25" style="1" customWidth="1"/>
-    <col min="14346" max="14346" width="5.625" style="1" customWidth="1"/>
-    <col min="14347" max="14347" width="7.625" style="1" customWidth="1"/>
-    <col min="14348" max="14349" width="5.625" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="6.625" style="1" customWidth="1"/>
-    <col min="14351" max="14351" width="9.75" style="1" customWidth="1"/>
-    <col min="14352" max="14352" width="13.125" style="1" customWidth="1"/>
+    <col min="14337" max="14337" width="1.6640625" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14339" max="14343" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="10.1640625" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14347" max="14347" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14348" max="14349" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14351" max="14351" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14352" max="14352" width="13.1640625" style="1" customWidth="1"/>
     <col min="14353" max="14592" width="9" style="1"/>
-    <col min="14593" max="14593" width="1.625" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="4.75" style="1" customWidth="1"/>
-    <col min="14595" max="14599" width="3.625" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="11.25" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="10.25" style="1" customWidth="1"/>
-    <col min="14602" max="14602" width="5.625" style="1" customWidth="1"/>
-    <col min="14603" max="14603" width="7.625" style="1" customWidth="1"/>
-    <col min="14604" max="14605" width="5.625" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="6.625" style="1" customWidth="1"/>
-    <col min="14607" max="14607" width="9.75" style="1" customWidth="1"/>
-    <col min="14608" max="14608" width="13.125" style="1" customWidth="1"/>
+    <col min="14593" max="14593" width="1.6640625" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14595" max="14599" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="10.1640625" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14603" max="14603" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14604" max="14605" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14607" max="14607" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14608" max="14608" width="13.1640625" style="1" customWidth="1"/>
     <col min="14609" max="14848" width="9" style="1"/>
-    <col min="14849" max="14849" width="1.625" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="4.75" style="1" customWidth="1"/>
-    <col min="14851" max="14855" width="3.625" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="11.25" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="10.25" style="1" customWidth="1"/>
-    <col min="14858" max="14858" width="5.625" style="1" customWidth="1"/>
-    <col min="14859" max="14859" width="7.625" style="1" customWidth="1"/>
-    <col min="14860" max="14861" width="5.625" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="6.625" style="1" customWidth="1"/>
-    <col min="14863" max="14863" width="9.75" style="1" customWidth="1"/>
-    <col min="14864" max="14864" width="13.125" style="1" customWidth="1"/>
+    <col min="14849" max="14849" width="1.6640625" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="4.6640625" style="1" customWidth="1"/>
+    <col min="14851" max="14855" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="11.1640625" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="10.1640625" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14859" max="14859" width="7.6640625" style="1" customWidth="1"/>
+    <col min="14860" max="14861" width="5.6640625" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="6.6640625" style="1" customWidth="1"/>
+    <col min="14863" max="14863" width="9.6640625" style="1" customWidth="1"/>
+    <col min="14864" max="14864" width="13.1640625" style="1" customWidth="1"/>
     <col min="14865" max="15104" width="9" style="1"/>
-    <col min="15105" max="15105" width="1.625" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="4.75" style="1" customWidth="1"/>
-    <col min="15107" max="15111" width="3.625" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="11.25" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="10.25" style="1" customWidth="1"/>
-    <col min="15114" max="15114" width="5.625" style="1" customWidth="1"/>
-    <col min="15115" max="15115" width="7.625" style="1" customWidth="1"/>
-    <col min="15116" max="15117" width="5.625" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="6.625" style="1" customWidth="1"/>
-    <col min="15119" max="15119" width="9.75" style="1" customWidth="1"/>
-    <col min="15120" max="15120" width="13.125" style="1" customWidth="1"/>
+    <col min="15105" max="15105" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15107" max="15111" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="11.1640625" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="10.1640625" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15115" max="15115" width="7.6640625" style="1" customWidth="1"/>
+    <col min="15116" max="15117" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15119" max="15119" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15120" max="15120" width="13.1640625" style="1" customWidth="1"/>
     <col min="15121" max="15360" width="9" style="1"/>
-    <col min="15361" max="15361" width="1.625" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="4.75" style="1" customWidth="1"/>
-    <col min="15363" max="15367" width="3.625" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="11.25" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="10.25" style="1" customWidth="1"/>
-    <col min="15370" max="15370" width="5.625" style="1" customWidth="1"/>
-    <col min="15371" max="15371" width="7.625" style="1" customWidth="1"/>
-    <col min="15372" max="15373" width="5.625" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="6.625" style="1" customWidth="1"/>
-    <col min="15375" max="15375" width="9.75" style="1" customWidth="1"/>
-    <col min="15376" max="15376" width="13.125" style="1" customWidth="1"/>
+    <col min="15361" max="15361" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15363" max="15367" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="11.1640625" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="10.1640625" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15371" max="15371" width="7.6640625" style="1" customWidth="1"/>
+    <col min="15372" max="15373" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15375" max="15375" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15376" max="15376" width="13.1640625" style="1" customWidth="1"/>
     <col min="15377" max="15616" width="9" style="1"/>
-    <col min="15617" max="15617" width="1.625" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="4.75" style="1" customWidth="1"/>
-    <col min="15619" max="15623" width="3.625" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="11.25" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="10.25" style="1" customWidth="1"/>
-    <col min="15626" max="15626" width="5.625" style="1" customWidth="1"/>
-    <col min="15627" max="15627" width="7.625" style="1" customWidth="1"/>
-    <col min="15628" max="15629" width="5.625" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="6.625" style="1" customWidth="1"/>
-    <col min="15631" max="15631" width="9.75" style="1" customWidth="1"/>
-    <col min="15632" max="15632" width="13.125" style="1" customWidth="1"/>
+    <col min="15617" max="15617" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15619" max="15623" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="11.1640625" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="10.1640625" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15627" max="15627" width="7.6640625" style="1" customWidth="1"/>
+    <col min="15628" max="15629" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15631" max="15631" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15632" max="15632" width="13.1640625" style="1" customWidth="1"/>
     <col min="15633" max="15872" width="9" style="1"/>
-    <col min="15873" max="15873" width="1.625" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="4.75" style="1" customWidth="1"/>
-    <col min="15875" max="15879" width="3.625" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="11.25" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="10.25" style="1" customWidth="1"/>
-    <col min="15882" max="15882" width="5.625" style="1" customWidth="1"/>
-    <col min="15883" max="15883" width="7.625" style="1" customWidth="1"/>
-    <col min="15884" max="15885" width="5.625" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="6.625" style="1" customWidth="1"/>
-    <col min="15887" max="15887" width="9.75" style="1" customWidth="1"/>
-    <col min="15888" max="15888" width="13.125" style="1" customWidth="1"/>
+    <col min="15873" max="15873" width="1.6640625" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="4.6640625" style="1" customWidth="1"/>
+    <col min="15875" max="15879" width="3.6640625" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="11.1640625" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="10.1640625" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15883" max="15883" width="7.6640625" style="1" customWidth="1"/>
+    <col min="15884" max="15885" width="5.6640625" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="6.6640625" style="1" customWidth="1"/>
+    <col min="15887" max="15887" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15888" max="15888" width="13.1640625" style="1" customWidth="1"/>
     <col min="15889" max="16128" width="9" style="1"/>
-    <col min="16129" max="16129" width="1.625" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="4.75" style="1" customWidth="1"/>
-    <col min="16131" max="16135" width="3.625" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="11.25" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="10.25" style="1" customWidth="1"/>
-    <col min="16138" max="16138" width="5.625" style="1" customWidth="1"/>
-    <col min="16139" max="16139" width="7.625" style="1" customWidth="1"/>
-    <col min="16140" max="16141" width="5.625" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="6.625" style="1" customWidth="1"/>
-    <col min="16143" max="16143" width="9.75" style="1" customWidth="1"/>
-    <col min="16144" max="16144" width="13.125" style="1" customWidth="1"/>
+    <col min="16129" max="16129" width="1.6640625" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="4.6640625" style="1" customWidth="1"/>
+    <col min="16131" max="16135" width="3.6640625" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="11.1640625" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="10.1640625" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16139" max="16139" width="7.6640625" style="1" customWidth="1"/>
+    <col min="16140" max="16141" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="6.6640625" style="1" customWidth="1"/>
+    <col min="16143" max="16143" width="9.6640625" style="1" customWidth="1"/>
+    <col min="16144" max="16144" width="13.1640625" style="1" customWidth="1"/>
     <col min="16145" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
